--- a/academycity/data/avi/datasets/excel/world_bank/output/2019_Technology_o.xlsx
+++ b/academycity/data/avi/datasets/excel/world_bank/output/2019_Technology_o.xlsx
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.000502</v>
+        <v>-0.00119</v>
       </c>
     </row>
     <row r="3">
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.000301</v>
+        <v>-0.001182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001625</v>
+        <v>0.010941</v>
       </c>
     </row>
     <row r="4">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.000461</v>
+        <v>-0.000956</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.000178</v>
+        <v>-0.000957</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.000548</v>
+        <v>-0.001451</v>
       </c>
     </row>
     <row r="6">
@@ -3442,10 +3442,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000516</v>
+        <v>0.000311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00213</v>
+        <v>0.013823</v>
       </c>
     </row>
     <row r="7">
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000767</v>
+        <v>0.000769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00483</v>
+        <v>0.029224</v>
       </c>
     </row>
     <row r="8">
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.016865</v>
+        <v>0.030187</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00769</v>
+        <v>0.045535</v>
       </c>
     </row>
     <row r="9">
@@ -3490,10 +3490,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.123124</v>
+        <v>0.224368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.055338</v>
+        <v>0.317284</v>
       </c>
     </row>
     <row r="10">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.000151</v>
+        <v>-0.000908</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.000245</v>
+        <v>0.000277</v>
       </c>
     </row>
     <row r="11">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.00752</v>
+        <v>0.013111</v>
       </c>
     </row>
     <row r="12">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.000405</v>
+        <v>-0.000635</v>
       </c>
     </row>
     <row r="13">
@@ -3548,10 +3548,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.005176</v>
+        <v>0.008828000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.014365</v>
+        <v>0.083606</v>
       </c>
     </row>
     <row r="14">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.197447</v>
+        <v>0.360187</v>
       </c>
       <c r="D14" t="n">
-        <v>0.070782</v>
+        <v>0.405369</v>
       </c>
     </row>
     <row r="15">
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.000339</v>
+        <v>-0.001252</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.000504</v>
+        <v>-0.001201</v>
       </c>
     </row>
     <row r="16">
@@ -3596,10 +3596,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.000261</v>
+        <v>-0.001108</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.000368</v>
+        <v>-0.000424</v>
       </c>
     </row>
     <row r="17">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.004837</v>
+        <v>0.008208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003405</v>
+        <v>0.021097</v>
       </c>
     </row>
     <row r="18">
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.00019</v>
+        <v>-0.000285</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00017</v>
+        <v>0.000705</v>
       </c>
     </row>
     <row r="19">
@@ -3644,10 +3644,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.002703</v>
+        <v>0.004308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000124</v>
+        <v>0.002382</v>
       </c>
     </row>
     <row r="20">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.020326</v>
+        <v>0.036513</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01489</v>
+        <v>0.086599</v>
       </c>
     </row>
     <row r="21">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.000229</v>
+        <v>-0.00105</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.000427</v>
+        <v>-0.000759</v>
       </c>
     </row>
     <row r="22">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.000342</v>
+        <v>-0.001257</v>
       </c>
     </row>
     <row r="23">
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.000336</v>
+        <v>-1.7e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.000272</v>
+        <v>0.000124</v>
       </c>
     </row>
     <row r="24">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.00027</v>
+        <v>0.000137</v>
       </c>
     </row>
     <row r="25">
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.057275</v>
+        <v>0.104033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.017948</v>
+        <v>0.104039</v>
       </c>
     </row>
     <row r="26">
@@ -3750,10 +3750,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.002082</v>
+        <v>0.003173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000589</v>
+        <v>0.005033</v>
       </c>
     </row>
     <row r="27">
@@ -3766,10 +3766,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.034563</v>
+        <v>0.06253</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000864</v>
+        <v>0.006602</v>
       </c>
     </row>
     <row r="28">
@@ -3782,10 +3782,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.000688</v>
+        <v>0.000625</v>
       </c>
       <c r="D28" t="n">
-        <v>2.8e-05</v>
+        <v>0.001835</v>
       </c>
     </row>
     <row r="29">
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.000319</v>
+        <v>-0.001214</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.000584</v>
+        <v>-0.001656</v>
       </c>
     </row>
     <row r="30">
@@ -3814,10 +3814,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.3e-05</v>
+        <v>-0.000589</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.000511</v>
+        <v>-0.00124</v>
       </c>
     </row>
     <row r="31">
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.015256</v>
+        <v>0.027248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.013642</v>
+        <v>0.07947799999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.9e-05</v>
+        <v>-0.000578</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.00024</v>
+        <v>0.000305</v>
       </c>
     </row>
     <row r="33">
@@ -3862,10 +3862,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.015752</v>
+        <v>0.028154</v>
       </c>
       <c r="D33" t="n">
-        <v>0.013555</v>
+        <v>0.078985</v>
       </c>
     </row>
     <row r="34">
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004851</v>
+        <v>0.008233000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.145212</v>
+        <v>0.829864</v>
       </c>
     </row>
     <row r="35">
@@ -3894,10 +3894,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.242064</v>
+        <v>0.441721</v>
       </c>
       <c r="D35" t="n">
-        <v>0.024569</v>
+        <v>0.141802</v>
       </c>
     </row>
     <row r="36">
@@ -3910,10 +3910,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.112839</v>
+        <v>0.205574</v>
       </c>
       <c r="D36" t="n">
-        <v>0.060339</v>
+        <v>0.34581</v>
       </c>
     </row>
     <row r="37">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.005545</v>
+        <v>0.033303</v>
       </c>
     </row>
     <row r="38">
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002178</v>
+        <v>0.003349</v>
       </c>
       <c r="D38" t="n">
-        <v>-5.8e-05</v>
+        <v>0.001344</v>
       </c>
     </row>
     <row r="39">
@@ -3955,10 +3955,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-7.4e-05</v>
+        <v>-0.000767</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.000347</v>
+        <v>-0.000301</v>
       </c>
     </row>
     <row r="40">
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.000133</v>
+        <v>-0.000874</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.000123</v>
+        <v>0.000973</v>
       </c>
     </row>
     <row r="41">
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.002176</v>
+        <v>0.003345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00168</v>
+        <v>0.011255</v>
       </c>
     </row>
     <row r="42">
@@ -4003,10 +4003,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.089481</v>
+        <v>0.162887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.045267</v>
+        <v>0.259849</v>
       </c>
     </row>
     <row r="43">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.000134</v>
+        <v>-0.000876</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.000415</v>
+        <v>-0.000694</v>
       </c>
     </row>
     <row r="44">
@@ -4035,10 +4035,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.000317</v>
+        <v>-0.00121</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.000518</v>
+        <v>-0.001278</v>
       </c>
     </row>
     <row r="45">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05643</v>
+        <v>0.10249</v>
       </c>
       <c r="D45" t="n">
-        <v>0.122306</v>
+        <v>0.699226</v>
       </c>
     </row>
     <row r="46">
@@ -4067,10 +4067,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.122533</v>
+        <v>0.223289</v>
       </c>
       <c r="D46" t="n">
-        <v>0.016433</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="47">
@@ -4083,10 +4083,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.000343</v>
+        <v>-0.001259</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.000338</v>
+        <v>-0.000251</v>
       </c>
     </row>
     <row r="48">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.4e-05</v>
+        <v>-0.000606</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0012</v>
+        <v>0.008521000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.171745</v>
+        <v>0.313218</v>
       </c>
       <c r="D49" t="n">
-        <v>0.022882</v>
+        <v>0.13218</v>
       </c>
     </row>
     <row r="50">
@@ -4131,10 +4131,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.000322</v>
+        <v>-0.001219</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.000396</v>
+        <v>-0.000581</v>
       </c>
     </row>
     <row r="51">
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01105</v>
+        <v>0.019562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00608</v>
+        <v>0.036352</v>
       </c>
     </row>
     <row r="52">
@@ -4163,10 +4163,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.000657</v>
+        <v>0.000569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002031</v>
+        <v>0.013261</v>
       </c>
     </row>
     <row r="53">
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.000356</v>
+        <v>-0.000355</v>
       </c>
     </row>
     <row r="54">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.000188</v>
+        <v>0.000605</v>
       </c>
     </row>
     <row r="55">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.000475</v>
+        <v>-0.001031</v>
       </c>
     </row>
     <row r="56">
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.000256</v>
+        <v>-0.0011</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00051</v>
+        <v>0.004585</v>
       </c>
     </row>
     <row r="57">
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.946216</v>
+        <v>5.383343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.023446</v>
+        <v>0.135395</v>
       </c>
     </row>
     <row r="58">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.129208</v>
+        <v>0.235486</v>
       </c>
       <c r="D58" t="n">
-        <v>0.016286</v>
+        <v>0.094557</v>
       </c>
     </row>
     <row r="59">
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.000822</v>
+        <v>0.000871</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003399</v>
+        <v>0.021061</v>
       </c>
     </row>
     <row r="60">
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.001257</v>
+        <v>0.001666</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.000299</v>
+        <v>-3.3e-05</v>
       </c>
     </row>
     <row r="61">
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.000429</v>
+        <v>-0.000771</v>
       </c>
     </row>
     <row r="62">
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.547565</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1.553719</v>
+        <v>8.863023999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4327,10 +4327,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.094985</v>
+        <v>0.172945</v>
       </c>
       <c r="D63" t="n">
-        <v>0.175043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.037092</v>
+        <v>0.067152</v>
       </c>
       <c r="D64" t="n">
-        <v>0.008178</v>
+        <v>0.048317</v>
       </c>
     </row>
     <row r="65">
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.000291</v>
+        <v>-0.001164</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002061</v>
+        <v>0.01343</v>
       </c>
     </row>
     <row r="66">
@@ -4375,10 +4375,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.05602</v>
+        <v>0.101741</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002851</v>
+        <v>0.017937</v>
       </c>
     </row>
     <row r="67">
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.000115</v>
+        <v>-0.000421</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.000511</v>
+        <v>-0.001239</v>
       </c>
     </row>
     <row r="68">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.007996</v>
+        <v>0.01398</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.00017</v>
+        <v>0.000703</v>
       </c>
     </row>
     <row r="69">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.000232</v>
+        <v>-0.001056</v>
       </c>
       <c r="D69" t="n">
-        <v>0.000135</v>
+        <v>0.002445</v>
       </c>
     </row>
     <row r="70">
@@ -4439,10 +4439,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.20343</v>
+        <v>0.371121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008063000000000001</v>
+        <v>0.047663</v>
       </c>
     </row>
     <row r="71">
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.001871</v>
+        <v>0.012346</v>
       </c>
     </row>
     <row r="72">
@@ -4468,10 +4468,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.7e-05</v>
+        <v>-0.00051</v>
       </c>
       <c r="D72" t="n">
-        <v>0.056901</v>
+        <v>0.326201</v>
       </c>
     </row>
     <row r="73">
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-2.7e-05</v>
+        <v>-0.00068</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.000452</v>
+        <v>-0.000905</v>
       </c>
     </row>
     <row r="74">
@@ -4500,10 +4500,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001842</v>
+        <v>0.002735</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.000315</v>
+        <v>-0.000122</v>
       </c>
     </row>
     <row r="75">
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.052418</v>
+        <v>0.09515899999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.028335</v>
+        <v>0.163277</v>
       </c>
     </row>
     <row r="76">
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.000432</v>
+        <v>0.000157</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005154</v>
+        <v>0.031071</v>
       </c>
     </row>
     <row r="77">
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.000297</v>
+        <v>-0.001174</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.000574</v>
+        <v>-0.001601</v>
       </c>
     </row>
     <row r="78">
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.000289</v>
+        <v>2.4e-05</v>
       </c>
     </row>
     <row r="79">
@@ -4577,10 +4577,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.061784</v>
+        <v>0.112274</v>
       </c>
       <c r="D79" t="n">
-        <v>0.015275</v>
+        <v>0.088793</v>
       </c>
     </row>
     <row r="80">
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.000337</v>
+        <v>-0.001247</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.000312</v>
+        <v>-0.000104</v>
       </c>
     </row>
     <row r="81">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.000327</v>
+        <v>-0.001229</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.000456</v>
+        <v>-0.000924</v>
       </c>
     </row>
     <row r="82">
@@ -4625,10 +4625,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.181642</v>
+        <v>0.331306</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004746</v>
+        <v>0.028744</v>
       </c>
     </row>
     <row r="83">
@@ -4641,10 +4641,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.000306</v>
+        <v>-0.001191</v>
       </c>
       <c r="D83" t="n">
-        <v>4e-05</v>
+        <v>0.001904</v>
       </c>
     </row>
     <row r="84">
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.000343</v>
+        <v>-0.001259</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.000419</v>
+        <v>-0.000715</v>
       </c>
     </row>
     <row r="85">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.000976</v>
+        <v>0.001151</v>
       </c>
       <c r="D85" t="n">
-        <v>0.005859</v>
+        <v>0.035089</v>
       </c>
     </row>
     <row r="86">
@@ -4689,10 +4689,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.040936</v>
+        <v>0.07417700000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.000552</v>
+        <v>-0.001472</v>
       </c>
     </row>
     <row r="87">
@@ -4705,10 +4705,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0003</v>
+        <v>-8.3e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005065</v>
+        <v>0.030561</v>
       </c>
     </row>
     <row r="88">
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.000498</v>
+        <v>0.000279</v>
       </c>
       <c r="D88" t="n">
-        <v>0.000319</v>
+        <v>0.003493</v>
       </c>
     </row>
     <row r="89">
@@ -4737,10 +4737,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.001583</v>
+        <v>0.002261</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001966</v>
+        <v>0.012885</v>
       </c>
     </row>
     <row r="90">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.000333</v>
+        <v>-0.001241</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.000541</v>
+        <v>-0.001408</v>
       </c>
     </row>
     <row r="91">
@@ -4769,10 +4769,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-6.9e-05</v>
+        <v>-0.000758</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.000421</v>
+        <v>-0.000724</v>
       </c>
     </row>
     <row r="92">
@@ -4785,10 +4785,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.000273</v>
+        <v>-0.00113</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.000242</v>
+        <v>0.000293</v>
       </c>
     </row>
     <row r="93">
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.000331</v>
+        <v>-0.001236</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.00021</v>
+        <v>0.000475</v>
       </c>
     </row>
     <row r="94">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.344161</v>
+        <v>0.628295</v>
       </c>
       <c r="D94" t="n">
-        <v>0.062357</v>
+        <v>0.357319</v>
       </c>
     </row>
     <row r="95">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.007559</v>
+        <v>0.013182</v>
       </c>
       <c r="D95" t="n">
-        <v>0.010159</v>
+        <v>0.059618</v>
       </c>
     </row>
     <row r="96">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-9.500000000000001e-05</v>
+        <v>-0.000804</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001132</v>
+        <v>0.008129000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.000338</v>
+        <v>-0.001249</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.000365</v>
+        <v>-0.000407</v>
       </c>
     </row>
     <row r="98">
@@ -4881,10 +4881,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.000314</v>
+        <v>-0.001206</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.000525</v>
+        <v>-0.001317</v>
       </c>
     </row>
     <row r="99">
@@ -4897,10 +4897,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.008018000000000001</v>
+        <v>0.014021</v>
       </c>
       <c r="D99" t="n">
-        <v>0.006272</v>
+        <v>0.037446</v>
       </c>
     </row>
     <row r="100">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.058883</v>
+        <v>0.106972</v>
       </c>
       <c r="D100" t="n">
-        <v>0.029122</v>
+        <v>0.167765</v>
       </c>
     </row>
     <row r="101">
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.000809</v>
+        <v>0.000846</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002215</v>
+        <v>0.014309</v>
       </c>
     </row>
     <row r="102">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.000221</v>
+        <v>-0.001036</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.000248</v>
+        <v>0.000263</v>
       </c>
     </row>
     <row r="103">
@@ -4961,10 +4961,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.000339</v>
+        <v>-0.001251</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003596</v>
+        <v>0.022187</v>
       </c>
     </row>
     <row r="104">
@@ -4977,10 +4977,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.000458</v>
+        <v>0.000206</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.000448</v>
+        <v>-0.000879</v>
       </c>
     </row>
     <row r="105">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3.2e-05</v>
+        <v>-0.000574</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.000385</v>
+        <v>-0.000522</v>
       </c>
     </row>
     <row r="106">
@@ -5009,10 +5009,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.021954</v>
+        <v>0.039487</v>
       </c>
       <c r="D106" t="n">
-        <v>0.00264</v>
+        <v>0.01673</v>
       </c>
     </row>
     <row r="107">
@@ -5025,10 +5025,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.035537</v>
+        <v>0.06431000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.012647</v>
+        <v>0.073807</v>
       </c>
     </row>
     <row r="108">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.023664</v>
+        <v>0.042613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.012867</v>
+        <v>0.07506</v>
       </c>
     </row>
     <row r="109">
@@ -5057,10 +5057,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.00034</v>
+        <v>-0.001253</v>
       </c>
       <c r="D109" t="n">
-        <v>0.017816</v>
+        <v>0.103285</v>
       </c>
     </row>
     <row r="110">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.024461</v>
+        <v>0.044069</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01827</v>
+        <v>0.105872</v>
       </c>
     </row>
     <row r="111">
@@ -5089,10 +5089,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.004774</v>
+        <v>0.008092</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001634</v>
+        <v>0.010992</v>
       </c>
     </row>
     <row r="112">
@@ -5105,10 +5105,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.000306</v>
+        <v>-0.001191</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.000496</v>
+        <v>-0.001152</v>
       </c>
     </row>
     <row r="113">
@@ -5121,10 +5121,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.000176</v>
+        <v>-0.000311</v>
       </c>
       <c r="D113" t="n">
-        <v>0.001985</v>
+        <v>0.012993</v>
       </c>
     </row>
     <row r="114">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-0.000303</v>
+        <v>-0.001185</v>
       </c>
     </row>
     <row r="115">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.004658</v>
+        <v>0.00788</v>
       </c>
       <c r="D115" t="n">
-        <v>0.012792</v>
+        <v>0.074632</v>
       </c>
     </row>
     <row r="116">
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.000578</v>
+        <v>-0.001623</v>
       </c>
     </row>
     <row r="117">
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.806734</v>
+        <v>3.30103</v>
       </c>
       <c r="D117" t="n">
-        <v>0.137114</v>
+        <v>0.783677</v>
       </c>
     </row>
     <row r="118">
@@ -5195,10 +5195,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.101025</v>
+        <v>0.183984</v>
       </c>
       <c r="D118" t="n">
-        <v>0.017984</v>
+        <v>0.104246</v>
       </c>
     </row>
     <row r="119">
@@ -5211,10 +5211,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.076405</v>
+        <v>0.138993</v>
       </c>
       <c r="D119" t="n">
-        <v>0.019125</v>
+        <v>0.110752</v>
       </c>
     </row>
     <row r="120">
@@ -5227,10 +5227,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001824</v>
+        <v>0.002702</v>
       </c>
       <c r="D120" t="n">
-        <v>0.000109</v>
+        <v>0.002298</v>
       </c>
     </row>
     <row r="121">
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-0.000583</v>
+        <v>-0.001653</v>
       </c>
     </row>
     <row r="122">
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.021572</v>
+        <v>0.038789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.017998</v>
+        <v>0.104326</v>
       </c>
     </row>
     <row r="123">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-5.7e-05</v>
+        <v>-0.000735</v>
       </c>
       <c r="D123" t="n">
-        <v>0.002237</v>
+        <v>0.014432</v>
       </c>
     </row>
     <row r="124">
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-0.000585</v>
+        <v>-0.001663</v>
       </c>
     </row>
     <row r="125">
@@ -5301,10 +5301,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.116058</v>
+        <v>0.211455</v>
       </c>
       <c r="D125" t="n">
-        <v>0.090254</v>
+        <v>0.516421</v>
       </c>
     </row>
     <row r="126">
@@ -5317,10 +5317,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.238966</v>
+        <v>0.43606</v>
       </c>
       <c r="D126" t="n">
-        <v>0.087282</v>
+        <v>0.499471</v>
       </c>
     </row>
     <row r="127">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-0.000285</v>
+        <v>-0.001153</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.000543</v>
+        <v>-0.00142</v>
       </c>
     </row>
     <row r="128">
@@ -5349,10 +5349,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-0.000333</v>
+        <v>-0.00124</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.000557</v>
+        <v>-0.001504</v>
       </c>
     </row>
     <row r="129">
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.038329</v>
+        <v>0.069411</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.000106</v>
+        <v>0.001072</v>
       </c>
     </row>
     <row r="130">
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.000526</v>
+        <v>-0.001323</v>
       </c>
     </row>
     <row r="131">
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.000342</v>
+        <v>-0.001256</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.000366</v>
+        <v>-0.000413</v>
       </c>
     </row>
     <row r="132">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.000139</v>
+        <v>-0.000377</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6e-05</v>
+        <v>0.001826</v>
       </c>
     </row>
     <row r="133">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.004449</v>
+        <v>0.007498</v>
       </c>
       <c r="D133" t="n">
-        <v>0.000714</v>
+        <v>0.005745</v>
       </c>
     </row>
     <row r="134">
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.003179</v>
+        <v>0.005178</v>
       </c>
       <c r="D134" t="n">
-        <v>0.000437</v>
+        <v>0.004167</v>
       </c>
     </row>
     <row r="135">
@@ -5458,10 +5458,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.000318</v>
+        <v>-0.001213</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.000548</v>
+        <v>-0.001448</v>
       </c>
     </row>
     <row r="136">
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.001461</v>
+        <v>0.002038</v>
       </c>
       <c r="D136" t="n">
-        <v>0.005111</v>
+        <v>0.030823</v>
       </c>
     </row>
     <row r="137">
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.004723</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="138">
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.078692</v>
+        <v>0.143172</v>
       </c>
       <c r="D138" t="n">
-        <v>0.028154</v>
+        <v>0.162246</v>
       </c>
     </row>
     <row r="139">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.031863</v>
+        <v>0.057595</v>
       </c>
       <c r="D139" t="n">
-        <v>0.009325999999999999</v>
+        <v>0.054862</v>
       </c>
     </row>
     <row r="140">
@@ -5535,10 +5535,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.001976</v>
+        <v>0.00298</v>
       </c>
       <c r="D140" t="n">
-        <v>0.016149</v>
+        <v>0.093778</v>
       </c>
     </row>
     <row r="141">
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.000301</v>
+        <v>-0.001182</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.000298</v>
+        <v>-2.4e-05</v>
       </c>
     </row>
     <row r="142">
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.06451900000000001</v>
+        <v>0.117272</v>
       </c>
     </row>
     <row r="143">
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-0.000246</v>
+        <v>-0.001081</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.000191</v>
+        <v>0.000584</v>
       </c>
     </row>
     <row r="144">
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-0.000259</v>
+        <v>-0.001105</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.000527</v>
+        <v>-0.001328</v>
       </c>
     </row>
     <row r="145">
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-0.000219</v>
+        <v>-0.001032</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.000473</v>
+        <v>-0.001025</v>
       </c>
     </row>
     <row r="146">
@@ -5628,10 +5628,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.000115</v>
+        <v>-0.000842</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.00041</v>
+        <v>-0.000665</v>
       </c>
     </row>
     <row r="147">
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.000441</v>
+        <v>-0.000838</v>
       </c>
     </row>
     <row r="148">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.000835</v>
+        <v>0.006435</v>
       </c>
     </row>
     <row r="149">
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.001204</v>
+        <v>0.008541</v>
       </c>
     </row>
     <row r="150">
@@ -5683,10 +5683,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.068135</v>
+        <v>0.123879</v>
       </c>
       <c r="D150" t="n">
-        <v>0.016693</v>
+        <v>0.096883</v>
       </c>
     </row>
     <row r="151">
@@ -5699,10 +5699,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.003018</v>
+        <v>0.004884</v>
       </c>
       <c r="D151" t="n">
-        <v>0.001882</v>
+        <v>0.012411</v>
       </c>
     </row>
     <row r="152">
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.001461</v>
+        <v>0.010009</v>
       </c>
     </row>
     <row r="153">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.0006980000000000001</v>
+        <v>0.005657</v>
       </c>
     </row>
     <row r="154">
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.000714</v>
+        <v>0.005748</v>
       </c>
     </row>
     <row r="155">
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.115873</v>
+        <v>0.211117</v>
       </c>
       <c r="D155" t="n">
-        <v>0.046744</v>
+        <v>0.268272</v>
       </c>
     </row>
     <row r="156">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.061078</v>
+        <v>0.110984</v>
       </c>
       <c r="D156" t="n">
-        <v>0.024177</v>
+        <v>0.139566</v>
       </c>
     </row>
     <row r="157">
@@ -5786,10 +5786,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.003526</v>
+        <v>0.005811</v>
       </c>
       <c r="D157" t="n">
-        <v>0.002171</v>
+        <v>0.014055</v>
       </c>
     </row>
     <row r="158">
@@ -5802,10 +5802,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.00715</v>
+        <v>0.012434</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00381</v>
+        <v>0.023407</v>
       </c>
     </row>
     <row r="159">
@@ -5818,10 +5818,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.105964</v>
+        <v>0.193008</v>
       </c>
       <c r="D159" t="n">
-        <v>0.041801</v>
+        <v>0.240082</v>
       </c>
     </row>
     <row r="160">
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.0002</v>
+        <v>0.000535</v>
       </c>
     </row>
     <row r="161">
@@ -5847,10 +5847,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-0.000307</v>
+        <v>-0.001192</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.000453</v>
+        <v>-0.000908</v>
       </c>
     </row>
     <row r="162">
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.096291</v>
+        <v>0.175332</v>
       </c>
       <c r="D162" t="n">
-        <v>0.023601</v>
+        <v>0.136278</v>
       </c>
     </row>
     <row r="163">
@@ -5879,10 +5879,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.015814</v>
+        <v>0.028267</v>
       </c>
       <c r="D163" t="n">
-        <v>0.001699</v>
+        <v>0.011365</v>
       </c>
     </row>
     <row r="164">
@@ -5895,10 +5895,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.011643</v>
+        <v>0.020646</v>
       </c>
       <c r="D164" t="n">
-        <v>0.001155</v>
+        <v>0.008265</v>
       </c>
     </row>
     <row r="165">
@@ -5911,10 +5911,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-0.000264</v>
+        <v>-0.001115</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.000325</v>
+        <v>-0.00018</v>
       </c>
     </row>
     <row r="166">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-0.000434</v>
+        <v>-0.000801</v>
       </c>
     </row>
     <row r="167">
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-0.000398</v>
+        <v>-0.000593</v>
       </c>
     </row>
     <row r="168">
@@ -5953,10 +5953,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.03058</v>
+        <v>0.055251</v>
       </c>
       <c r="D168" t="n">
-        <v>0.004858</v>
+        <v>0.029384</v>
       </c>
     </row>
     <row r="169">
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.000337</v>
+        <v>0.003599</v>
       </c>
     </row>
     <row r="170">
@@ -5982,10 +5982,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.010051</v>
+        <v>0.017735</v>
       </c>
       <c r="D170" t="n">
-        <v>0.000259</v>
+        <v>0.00315</v>
       </c>
     </row>
     <row r="171">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.009377999999999999</v>
+        <v>0.016506</v>
       </c>
       <c r="D171" t="n">
-        <v>0.000354</v>
+        <v>0.003695</v>
       </c>
     </row>
     <row r="172">
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.000467</v>
+        <v>-0.0009879999999999999</v>
       </c>
     </row>
     <row r="173">
@@ -6027,10 +6027,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.011483</v>
+        <v>0.020352</v>
       </c>
       <c r="D173" t="n">
-        <v>0.001018</v>
+        <v>0.007482</v>
       </c>
     </row>
     <row r="174">
@@ -6043,7 +6043,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-0.000506</v>
+        <v>-0.001213</v>
       </c>
     </row>
     <row r="175">
@@ -6056,10 +6056,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.003002</v>
+        <v>0.004855</v>
       </c>
       <c r="D175" t="n">
-        <v>0.001446</v>
+        <v>0.00992</v>
       </c>
     </row>
     <row r="176">
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.002106</v>
+        <v>0.003216</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00411</v>
+        <v>0.025116</v>
       </c>
     </row>
     <row r="177">
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-5.9e-05</v>
+        <v>0.001337</v>
       </c>
     </row>
     <row r="178">
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-5.8e-05</v>
+        <v>0.001346</v>
       </c>
     </row>
     <row r="179">
@@ -6114,10 +6114,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.012868</v>
+        <v>0.022883</v>
       </c>
       <c r="D179" t="n">
-        <v>0.001197</v>
+        <v>0.008501999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -6130,10 +6130,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.034468</v>
+        <v>0.062356</v>
       </c>
       <c r="D180" t="n">
-        <v>0.010222</v>
+        <v>0.059976</v>
       </c>
     </row>
     <row r="181">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.06707200000000001</v>
+        <v>0.121937</v>
       </c>
       <c r="D181" t="n">
-        <v>0.019963</v>
+        <v>0.115528</v>
       </c>
     </row>
     <row r="182">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.010352</v>
+        <v>0.060717</v>
       </c>
     </row>
     <row r="183">
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.000565</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="184">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.101485</v>
+        <v>0.184824</v>
       </c>
       <c r="D184" t="n">
-        <v>0.016781</v>
+        <v>0.09737999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.000456</v>
+        <v>-0.000927</v>
       </c>
     </row>
     <row r="186">
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.008142</v>
+        <v>0.048113</v>
       </c>
     </row>
     <row r="187">
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
     </row>
     <row r="188">
@@ -6243,7 +6243,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
     </row>
     <row r="189">
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-0.000188</v>
+        <v>-0.000974</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.000423</v>
+        <v>-0.000735</v>
       </c>
     </row>
     <row r="190">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-0.000188</v>
+        <v>-0.000975</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.000423</v>
+        <v>-0.000739</v>
       </c>
     </row>
     <row r="191">
@@ -6288,10 +6288,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-0.000188</v>
+        <v>-0.000974</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.000423</v>
+        <v>-0.000735</v>
       </c>
     </row>
     <row r="192">
@@ -6304,10 +6304,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.02603</v>
+        <v>0.046936</v>
       </c>
       <c r="D192" t="n">
-        <v>0.000865</v>
+        <v>0.006611</v>
       </c>
     </row>
     <row r="193">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.024975</v>
+        <v>0.045009</v>
       </c>
       <c r="D193" t="n">
-        <v>0.004617</v>
+        <v>0.028006</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001625</v>
+        <v>0.010941</v>
       </c>
     </row>
     <row r="4">
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000516</v>
+        <v>0.000311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00213</v>
+        <v>0.013823</v>
       </c>
     </row>
     <row r="7">
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000767</v>
+        <v>0.000769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00483</v>
+        <v>0.029224</v>
       </c>
     </row>
     <row r="8">
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.016865</v>
+        <v>0.030187</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00769</v>
+        <v>0.045535</v>
       </c>
     </row>
     <row r="9">
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.123124</v>
+        <v>0.224368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.055338</v>
+        <v>0.317284</v>
       </c>
     </row>
     <row r="10">
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.000277</v>
       </c>
     </row>
     <row r="11">
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.00752</v>
+        <v>0.013111</v>
       </c>
     </row>
     <row r="12">
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.005176</v>
+        <v>0.008828000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.014365</v>
+        <v>0.083606</v>
       </c>
     </row>
     <row r="14">
@@ -6552,10 +6552,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.197447</v>
+        <v>0.360187</v>
       </c>
       <c r="D14" t="n">
-        <v>0.070782</v>
+        <v>0.405369</v>
       </c>
     </row>
     <row r="15">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.004837</v>
+        <v>0.008208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003405</v>
+        <v>0.021097</v>
       </c>
     </row>
     <row r="18">
@@ -6616,10 +6616,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.000705</v>
       </c>
     </row>
     <row r="19">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.002703</v>
+        <v>0.004308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000124</v>
+        <v>0.002382</v>
       </c>
     </row>
     <row r="20">
@@ -6648,10 +6648,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.020326</v>
+        <v>0.036513</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01489</v>
+        <v>0.086599</v>
       </c>
     </row>
     <row r="21">
@@ -6693,10 +6693,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.000336</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.000124</v>
       </c>
     </row>
     <row r="24">
@@ -6709,7 +6709,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.000137</v>
       </c>
     </row>
     <row r="25">
@@ -6722,10 +6722,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.057275</v>
+        <v>0.104033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.017948</v>
+        <v>0.104039</v>
       </c>
     </row>
     <row r="26">
@@ -6738,10 +6738,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.002082</v>
+        <v>0.003173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000589</v>
+        <v>0.005033</v>
       </c>
     </row>
     <row r="27">
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.034563</v>
+        <v>0.06253</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000864</v>
+        <v>0.006602</v>
       </c>
     </row>
     <row r="28">
@@ -6770,10 +6770,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.000688</v>
+        <v>0.000625</v>
       </c>
       <c r="D28" t="n">
-        <v>2.8e-05</v>
+        <v>0.001835</v>
       </c>
     </row>
     <row r="29">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.3e-05</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -6818,10 +6818,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.015256</v>
+        <v>0.027248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.013642</v>
+        <v>0.07947799999999999</v>
       </c>
     </row>
     <row r="32">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.9e-05</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.000305</v>
       </c>
     </row>
     <row r="33">
@@ -6850,10 +6850,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.015752</v>
+        <v>0.028154</v>
       </c>
       <c r="D33" t="n">
-        <v>0.013555</v>
+        <v>0.078985</v>
       </c>
     </row>
     <row r="34">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004851</v>
+        <v>0.008233000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.145212</v>
+        <v>0.829864</v>
       </c>
     </row>
     <row r="35">
@@ -6882,10 +6882,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.242064</v>
+        <v>0.441721</v>
       </c>
       <c r="D35" t="n">
-        <v>0.024569</v>
+        <v>0.141802</v>
       </c>
     </row>
     <row r="36">
@@ -6898,10 +6898,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.112839</v>
+        <v>0.205574</v>
       </c>
       <c r="D36" t="n">
-        <v>0.060339</v>
+        <v>0.34581</v>
       </c>
     </row>
     <row r="37">
@@ -6914,7 +6914,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.005545</v>
+        <v>0.033303</v>
       </c>
     </row>
     <row r="38">
@@ -6927,10 +6927,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002178</v>
+        <v>0.003349</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.001344</v>
       </c>
     </row>
     <row r="39">
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.000973</v>
       </c>
     </row>
     <row r="41">
@@ -6975,10 +6975,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.002176</v>
+        <v>0.003345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00168</v>
+        <v>0.011255</v>
       </c>
     </row>
     <row r="42">
@@ -6991,10 +6991,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.089481</v>
+        <v>0.162887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.045267</v>
+        <v>0.259849</v>
       </c>
     </row>
     <row r="43">
@@ -7039,10 +7039,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05643</v>
+        <v>0.10249</v>
       </c>
       <c r="D45" t="n">
-        <v>0.122306</v>
+        <v>0.699226</v>
       </c>
     </row>
     <row r="46">
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.122533</v>
+        <v>0.223289</v>
       </c>
       <c r="D46" t="n">
-        <v>0.016433</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="47">
@@ -7087,10 +7087,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.4e-05</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0012</v>
+        <v>0.008521000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -7103,10 +7103,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.171745</v>
+        <v>0.313218</v>
       </c>
       <c r="D49" t="n">
-        <v>0.022882</v>
+        <v>0.13218</v>
       </c>
     </row>
     <row r="50">
@@ -7135,10 +7135,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01105</v>
+        <v>0.019562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00608</v>
+        <v>0.036352</v>
       </c>
     </row>
     <row r="52">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.000657</v>
+        <v>0.000569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002031</v>
+        <v>0.013261</v>
       </c>
     </row>
     <row r="53">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.000605</v>
       </c>
     </row>
     <row r="55">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00051</v>
+        <v>0.004585</v>
       </c>
     </row>
     <row r="57">
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.023446</v>
+        <v>0.135395</v>
       </c>
     </row>
     <row r="58">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.129208</v>
+        <v>0.235486</v>
       </c>
       <c r="D58" t="n">
-        <v>0.016286</v>
+        <v>0.094557</v>
       </c>
     </row>
     <row r="59">
@@ -7254,10 +7254,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.000822</v>
+        <v>0.000871</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003399</v>
+        <v>0.021061</v>
       </c>
     </row>
     <row r="60">
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.001257</v>
+        <v>0.001666</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.547565</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.094985</v>
+        <v>0.172945</v>
       </c>
       <c r="D63" t="n">
-        <v>0.175043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -7331,10 +7331,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.037092</v>
+        <v>0.067152</v>
       </c>
       <c r="D64" t="n">
-        <v>0.008178</v>
+        <v>0.048317</v>
       </c>
     </row>
     <row r="65">
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002061</v>
+        <v>0.01343</v>
       </c>
     </row>
     <row r="66">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.05602</v>
+        <v>0.101741</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002851</v>
+        <v>0.017937</v>
       </c>
     </row>
     <row r="67">
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.000115</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -7395,10 +7395,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.007996</v>
+        <v>0.01398</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.000703</v>
       </c>
     </row>
     <row r="69">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.000135</v>
+        <v>0.002445</v>
       </c>
     </row>
     <row r="70">
@@ -7427,10 +7427,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.20343</v>
+        <v>0.371121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008063000000000001</v>
+        <v>0.047663</v>
       </c>
     </row>
     <row r="71">
@@ -7443,7 +7443,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.001871</v>
+        <v>0.012346</v>
       </c>
     </row>
     <row r="72">
@@ -7456,10 +7456,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.7e-05</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.056901</v>
+        <v>0.326201</v>
       </c>
     </row>
     <row r="73">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001842</v>
+        <v>0.002735</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -7504,10 +7504,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.052418</v>
+        <v>0.09515899999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.028335</v>
+        <v>0.163277</v>
       </c>
     </row>
     <row r="76">
@@ -7520,10 +7520,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.000432</v>
+        <v>0.000157</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005154</v>
+        <v>0.031071</v>
       </c>
     </row>
     <row r="77">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>2.4e-05</v>
       </c>
     </row>
     <row r="79">
@@ -7565,10 +7565,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.061784</v>
+        <v>0.112274</v>
       </c>
       <c r="D79" t="n">
-        <v>0.015275</v>
+        <v>0.088793</v>
       </c>
     </row>
     <row r="80">
@@ -7613,10 +7613,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.181642</v>
+        <v>0.331306</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004746</v>
+        <v>0.028744</v>
       </c>
     </row>
     <row r="83">
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>4e-05</v>
+        <v>0.001904</v>
       </c>
     </row>
     <row r="84">
@@ -7661,10 +7661,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.000976</v>
+        <v>0.001151</v>
       </c>
       <c r="D85" t="n">
-        <v>0.005859</v>
+        <v>0.035089</v>
       </c>
     </row>
     <row r="86">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.040936</v>
+        <v>0.07417700000000001</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -7693,10 +7693,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005065</v>
+        <v>0.030561</v>
       </c>
     </row>
     <row r="88">
@@ -7709,10 +7709,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.000498</v>
+        <v>0.000279</v>
       </c>
       <c r="D88" t="n">
-        <v>0.000319</v>
+        <v>0.003493</v>
       </c>
     </row>
     <row r="89">
@@ -7725,10 +7725,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.001583</v>
+        <v>0.002261</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001966</v>
+        <v>0.012885</v>
       </c>
     </row>
     <row r="90">
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.000293</v>
       </c>
     </row>
     <row r="93">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>0.000475</v>
       </c>
     </row>
     <row r="94">
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.344161</v>
+        <v>0.628295</v>
       </c>
       <c r="D94" t="n">
-        <v>0.062357</v>
+        <v>0.357319</v>
       </c>
     </row>
     <row r="95">
@@ -7821,10 +7821,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.007559</v>
+        <v>0.013182</v>
       </c>
       <c r="D95" t="n">
-        <v>0.010159</v>
+        <v>0.059618</v>
       </c>
     </row>
     <row r="96">
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001132</v>
+        <v>0.008129000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -7885,10 +7885,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.008018000000000001</v>
+        <v>0.014021</v>
       </c>
       <c r="D99" t="n">
-        <v>0.006272</v>
+        <v>0.037446</v>
       </c>
     </row>
     <row r="100">
@@ -7901,10 +7901,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.058883</v>
+        <v>0.106972</v>
       </c>
       <c r="D100" t="n">
-        <v>0.029122</v>
+        <v>0.167765</v>
       </c>
     </row>
     <row r="101">
@@ -7917,10 +7917,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.000809</v>
+        <v>0.000846</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002215</v>
+        <v>0.014309</v>
       </c>
     </row>
     <row r="102">
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.000263</v>
       </c>
     </row>
     <row r="103">
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003596</v>
+        <v>0.022187</v>
       </c>
     </row>
     <row r="104">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.000458</v>
+        <v>0.000206</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3.2e-05</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.021954</v>
+        <v>0.039487</v>
       </c>
       <c r="D106" t="n">
-        <v>0.00264</v>
+        <v>0.01673</v>
       </c>
     </row>
     <row r="107">
@@ -8013,10 +8013,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.035537</v>
+        <v>0.06431000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.012647</v>
+        <v>0.073807</v>
       </c>
     </row>
     <row r="108">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.023664</v>
+        <v>0.042613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.012867</v>
+        <v>0.07506</v>
       </c>
     </row>
     <row r="109">
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.017816</v>
+        <v>0.103285</v>
       </c>
     </row>
     <row r="110">
@@ -8061,10 +8061,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.024461</v>
+        <v>0.044069</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01827</v>
+        <v>0.105872</v>
       </c>
     </row>
     <row r="111">
@@ -8077,10 +8077,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.004774</v>
+        <v>0.008092</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001634</v>
+        <v>0.010992</v>
       </c>
     </row>
     <row r="112">
@@ -8109,10 +8109,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.000176</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.001985</v>
+        <v>0.012993</v>
       </c>
     </row>
     <row r="114">
@@ -8138,10 +8138,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.004658</v>
+        <v>0.00788</v>
       </c>
       <c r="D115" t="n">
-        <v>0.012792</v>
+        <v>0.074632</v>
       </c>
     </row>
     <row r="116">
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.137114</v>
+        <v>0.783677</v>
       </c>
     </row>
     <row r="118">
@@ -8183,10 +8183,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.101025</v>
+        <v>0.183984</v>
       </c>
       <c r="D118" t="n">
-        <v>0.017984</v>
+        <v>0.104246</v>
       </c>
     </row>
     <row r="119">
@@ -8199,10 +8199,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.076405</v>
+        <v>0.138993</v>
       </c>
       <c r="D119" t="n">
-        <v>0.019125</v>
+        <v>0.110752</v>
       </c>
     </row>
     <row r="120">
@@ -8215,10 +8215,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001824</v>
+        <v>0.002702</v>
       </c>
       <c r="D120" t="n">
-        <v>0.000109</v>
+        <v>0.002298</v>
       </c>
     </row>
     <row r="121">
@@ -8244,10 +8244,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.021572</v>
+        <v>0.038789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.017998</v>
+        <v>0.104326</v>
       </c>
     </row>
     <row r="123">
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.002237</v>
+        <v>0.014432</v>
       </c>
     </row>
     <row r="124">
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.116058</v>
+        <v>0.211455</v>
       </c>
       <c r="D125" t="n">
-        <v>0.090254</v>
+        <v>0.516421</v>
       </c>
     </row>
     <row r="126">
@@ -8305,10 +8305,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.238966</v>
+        <v>0.43606</v>
       </c>
       <c r="D126" t="n">
-        <v>0.087282</v>
+        <v>0.499471</v>
       </c>
     </row>
     <row r="127">
@@ -8353,10 +8353,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.038329</v>
+        <v>0.069411</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.001072</v>
       </c>
     </row>
     <row r="130">
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.000139</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6e-05</v>
+        <v>0.001826</v>
       </c>
     </row>
     <row r="133">
@@ -8414,10 +8414,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.004449</v>
+        <v>0.007498</v>
       </c>
       <c r="D133" t="n">
-        <v>0.000714</v>
+        <v>0.005745</v>
       </c>
     </row>
     <row r="134">
@@ -8430,10 +8430,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.003179</v>
+        <v>0.005178</v>
       </c>
       <c r="D134" t="n">
-        <v>0.000437</v>
+        <v>0.004167</v>
       </c>
     </row>
     <row r="135">
@@ -8462,10 +8462,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.001461</v>
+        <v>0.002038</v>
       </c>
       <c r="D136" t="n">
-        <v>0.005111</v>
+        <v>0.030823</v>
       </c>
     </row>
     <row r="137">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.004723</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="138">
@@ -8491,10 +8491,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.078692</v>
+        <v>0.143172</v>
       </c>
       <c r="D138" t="n">
-        <v>0.028154</v>
+        <v>0.162246</v>
       </c>
     </row>
     <row r="139">
@@ -8507,10 +8507,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.031863</v>
+        <v>0.057595</v>
       </c>
       <c r="D139" t="n">
-        <v>0.009325999999999999</v>
+        <v>0.054862</v>
       </c>
     </row>
     <row r="140">
@@ -8523,10 +8523,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.001976</v>
+        <v>0.00298</v>
       </c>
       <c r="D140" t="n">
-        <v>0.016149</v>
+        <v>0.093778</v>
       </c>
     </row>
     <row r="141">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.06451900000000001</v>
+        <v>0.117272</v>
       </c>
     </row>
     <row r="143">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>0.000584</v>
       </c>
     </row>
     <row r="144">
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.000835</v>
+        <v>0.006435</v>
       </c>
     </row>
     <row r="149">
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.001204</v>
+        <v>0.008541</v>
       </c>
     </row>
     <row r="150">
@@ -8671,10 +8671,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.068135</v>
+        <v>0.123879</v>
       </c>
       <c r="D150" t="n">
-        <v>0.016693</v>
+        <v>0.096883</v>
       </c>
     </row>
     <row r="151">
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.003018</v>
+        <v>0.004884</v>
       </c>
       <c r="D151" t="n">
-        <v>0.001882</v>
+        <v>0.012411</v>
       </c>
     </row>
     <row r="152">
@@ -8703,7 +8703,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.001461</v>
+        <v>0.010009</v>
       </c>
     </row>
     <row r="153">
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.0006980000000000001</v>
+        <v>0.005657</v>
       </c>
     </row>
     <row r="154">
@@ -8729,7 +8729,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.000714</v>
+        <v>0.005748</v>
       </c>
     </row>
     <row r="155">
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.115873</v>
+        <v>0.211117</v>
       </c>
       <c r="D155" t="n">
-        <v>0.046744</v>
+        <v>0.268272</v>
       </c>
     </row>
     <row r="156">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.061078</v>
+        <v>0.110984</v>
       </c>
       <c r="D156" t="n">
-        <v>0.024177</v>
+        <v>0.139566</v>
       </c>
     </row>
     <row r="157">
@@ -8774,10 +8774,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.003526</v>
+        <v>0.005811</v>
       </c>
       <c r="D157" t="n">
-        <v>0.002171</v>
+        <v>0.014055</v>
       </c>
     </row>
     <row r="158">
@@ -8790,10 +8790,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.00715</v>
+        <v>0.012434</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00381</v>
+        <v>0.023407</v>
       </c>
     </row>
     <row r="159">
@@ -8806,10 +8806,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.105964</v>
+        <v>0.193008</v>
       </c>
       <c r="D159" t="n">
-        <v>0.041801</v>
+        <v>0.240082</v>
       </c>
     </row>
     <row r="160">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>0.000535</v>
       </c>
     </row>
     <row r="161">
@@ -8851,10 +8851,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.096291</v>
+        <v>0.175332</v>
       </c>
       <c r="D162" t="n">
-        <v>0.023601</v>
+        <v>0.136278</v>
       </c>
     </row>
     <row r="163">
@@ -8867,10 +8867,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.015814</v>
+        <v>0.028267</v>
       </c>
       <c r="D163" t="n">
-        <v>0.001699</v>
+        <v>0.011365</v>
       </c>
     </row>
     <row r="164">
@@ -8883,10 +8883,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.011643</v>
+        <v>0.020646</v>
       </c>
       <c r="D164" t="n">
-        <v>0.001155</v>
+        <v>0.008265</v>
       </c>
     </row>
     <row r="165">
@@ -8941,10 +8941,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.03058</v>
+        <v>0.055251</v>
       </c>
       <c r="D168" t="n">
-        <v>0.004858</v>
+        <v>0.029384</v>
       </c>
     </row>
     <row r="169">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.000337</v>
+        <v>0.003599</v>
       </c>
     </row>
     <row r="170">
@@ -8970,10 +8970,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.010051</v>
+        <v>0.017735</v>
       </c>
       <c r="D170" t="n">
-        <v>0.000259</v>
+        <v>0.00315</v>
       </c>
     </row>
     <row r="171">
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.009377999999999999</v>
+        <v>0.016506</v>
       </c>
       <c r="D171" t="n">
-        <v>0.000354</v>
+        <v>0.003695</v>
       </c>
     </row>
     <row r="172">
@@ -9015,10 +9015,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.011483</v>
+        <v>0.020352</v>
       </c>
       <c r="D173" t="n">
-        <v>0.001018</v>
+        <v>0.007482</v>
       </c>
     </row>
     <row r="174">
@@ -9044,10 +9044,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.003002</v>
+        <v>0.004855</v>
       </c>
       <c r="D175" t="n">
-        <v>0.001446</v>
+        <v>0.00992</v>
       </c>
     </row>
     <row r="176">
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.002106</v>
+        <v>0.003216</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00411</v>
+        <v>0.025116</v>
       </c>
     </row>
     <row r="177">
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>0.001337</v>
       </c>
     </row>
     <row r="178">
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>0.001346</v>
       </c>
     </row>
     <row r="179">
@@ -9102,10 +9102,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.012868</v>
+        <v>0.022883</v>
       </c>
       <c r="D179" t="n">
-        <v>0.001197</v>
+        <v>0.008501999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.034468</v>
+        <v>0.062356</v>
       </c>
       <c r="D180" t="n">
-        <v>0.010222</v>
+        <v>0.059976</v>
       </c>
     </row>
     <row r="181">
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.06707200000000001</v>
+        <v>0.121937</v>
       </c>
       <c r="D181" t="n">
-        <v>0.019963</v>
+        <v>0.115528</v>
       </c>
     </row>
     <row r="182">
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.010352</v>
+        <v>0.060717</v>
       </c>
     </row>
     <row r="183">
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.000565</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="184">
@@ -9176,10 +9176,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.101485</v>
+        <v>0.184824</v>
       </c>
       <c r="D184" t="n">
-        <v>0.016781</v>
+        <v>0.09737999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -9205,7 +9205,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.008142</v>
+        <v>0.048113</v>
       </c>
     </row>
     <row r="187">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
     </row>
     <row r="188">
@@ -9231,7 +9231,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
     </row>
     <row r="189">
@@ -9292,10 +9292,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.02603</v>
+        <v>0.046936</v>
       </c>
       <c r="D192" t="n">
-        <v>0.000865</v>
+        <v>0.006611</v>
       </c>
     </row>
     <row r="193">
@@ -9308,10 +9308,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.024975</v>
+        <v>0.045009</v>
       </c>
       <c r="D193" t="n">
-        <v>0.004617</v>
+        <v>0.028006</v>
       </c>
     </row>
   </sheetData>
@@ -9370,10 +9370,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.000502</v>
+        <v>-0.00119</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.000502</v>
+        <v>-0.00119</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -9392,16 +9392,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.000301</v>
+        <v>-0.001182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001625</v>
+        <v>0.010941</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001625</v>
+        <v>0.010941</v>
       </c>
     </row>
     <row r="4">
@@ -9414,10 +9414,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.000461</v>
+        <v>-0.000956</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.000461</v>
+        <v>-0.000956</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -9436,10 +9436,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.000548</v>
+        <v>-0.001451</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.000178</v>
+        <v>-0.000957</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -9458,16 +9458,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000516</v>
+        <v>0.000311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00213</v>
+        <v>0.013823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000516</v>
+        <v>0.000311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00213</v>
+        <v>0.013823</v>
       </c>
     </row>
     <row r="7">
@@ -9480,16 +9480,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000767</v>
+        <v>0.000769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00483</v>
+        <v>0.029224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000767</v>
+        <v>0.000769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00483</v>
+        <v>0.029224</v>
       </c>
     </row>
     <row r="8">
@@ -9502,16 +9502,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.00769</v>
+        <v>0.030187</v>
       </c>
       <c r="D8" t="n">
-        <v>0.016865</v>
+        <v>0.045535</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00769</v>
+        <v>0.030187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.016865</v>
+        <v>0.045535</v>
       </c>
     </row>
     <row r="9">
@@ -9524,16 +9524,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.055338</v>
+        <v>0.224368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.123124</v>
+        <v>0.317284</v>
       </c>
       <c r="E9" t="n">
-        <v>0.055338</v>
+        <v>0.224368</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123124</v>
+        <v>0.317284</v>
       </c>
     </row>
     <row r="10">
@@ -9546,16 +9546,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.000245</v>
+        <v>-0.000908</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.000151</v>
+        <v>0.000277</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.000277</v>
       </c>
     </row>
     <row r="11">
@@ -9568,16 +9568,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.00752</v>
+        <v>0.013111</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00752</v>
+        <v>0.013111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00752</v>
+        <v>0.013111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00752</v>
+        <v>0.013111</v>
       </c>
     </row>
     <row r="12">
@@ -9590,10 +9590,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.000405</v>
+        <v>-0.000635</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.000405</v>
+        <v>-0.000635</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9612,16 +9612,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.005176</v>
+        <v>0.008828000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.014365</v>
+        <v>0.083606</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005176</v>
+        <v>0.008828000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.014365</v>
+        <v>0.083606</v>
       </c>
     </row>
     <row r="14">
@@ -9634,16 +9634,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.070782</v>
+        <v>0.360187</v>
       </c>
       <c r="D14" t="n">
-        <v>0.197447</v>
+        <v>0.405369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.070782</v>
+        <v>0.360187</v>
       </c>
       <c r="F14" t="n">
-        <v>0.197447</v>
+        <v>0.405369</v>
       </c>
     </row>
     <row r="15">
@@ -9656,10 +9656,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.000504</v>
+        <v>-0.001252</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.000339</v>
+        <v>-0.001201</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9678,10 +9678,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.000368</v>
+        <v>-0.001108</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.000261</v>
+        <v>-0.000424</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9700,16 +9700,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.003405</v>
+        <v>0.008208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004837</v>
+        <v>0.021097</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003405</v>
+        <v>0.008208</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004837</v>
+        <v>0.021097</v>
       </c>
     </row>
     <row r="18">
@@ -9722,16 +9722,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.00017</v>
+        <v>-0.000285</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00019</v>
+        <v>0.000705</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00019</v>
+        <v>0.000705</v>
       </c>
     </row>
     <row r="19">
@@ -9744,16 +9744,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000124</v>
+        <v>0.002382</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002703</v>
+        <v>0.004308</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000124</v>
+        <v>0.002382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002703</v>
+        <v>0.004308</v>
       </c>
     </row>
     <row r="20">
@@ -9766,16 +9766,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01489</v>
+        <v>0.036513</v>
       </c>
       <c r="D20" t="n">
-        <v>0.020326</v>
+        <v>0.086599</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01489</v>
+        <v>0.036513</v>
       </c>
       <c r="F20" t="n">
-        <v>0.020326</v>
+        <v>0.086599</v>
       </c>
     </row>
     <row r="21">
@@ -9788,10 +9788,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.000427</v>
+        <v>-0.00105</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.000229</v>
+        <v>-0.000759</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.000342</v>
+        <v>-0.001257</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.000342</v>
+        <v>-0.001257</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9832,16 +9832,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.000272</v>
+        <v>-1.7e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000336</v>
+        <v>0.000124</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000336</v>
+        <v>0.000124</v>
       </c>
     </row>
     <row r="24">
@@ -9854,16 +9854,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.00027</v>
+        <v>0.000137</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00027</v>
+        <v>0.000137</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.000137</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.000137</v>
       </c>
     </row>
     <row r="25">
@@ -9876,16 +9876,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.017948</v>
+        <v>0.104033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.057275</v>
+        <v>0.104039</v>
       </c>
       <c r="E25" t="n">
-        <v>0.017948</v>
+        <v>0.104033</v>
       </c>
       <c r="F25" t="n">
-        <v>0.057275</v>
+        <v>0.104039</v>
       </c>
     </row>
     <row r="26">
@@ -9898,16 +9898,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.000589</v>
+        <v>0.003173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002082</v>
+        <v>0.005033</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000589</v>
+        <v>0.003173</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002082</v>
+        <v>0.005033</v>
       </c>
     </row>
     <row r="27">
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.000864</v>
+        <v>0.006602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.034563</v>
+        <v>0.06253</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000864</v>
+        <v>0.006602</v>
       </c>
       <c r="F27" t="n">
-        <v>0.034563</v>
+        <v>0.06253</v>
       </c>
     </row>
     <row r="28">
@@ -9942,16 +9942,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.8e-05</v>
+        <v>0.000625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000688</v>
+        <v>0.001835</v>
       </c>
       <c r="E28" t="n">
-        <v>2.8e-05</v>
+        <v>0.000625</v>
       </c>
       <c r="F28" t="n">
-        <v>0.000688</v>
+        <v>0.001835</v>
       </c>
     </row>
     <row r="29">
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.000584</v>
+        <v>-0.001656</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.000319</v>
+        <v>-0.001214</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -9986,16 +9986,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.000511</v>
+        <v>-0.00124</v>
       </c>
       <c r="D30" t="n">
-        <v>2.3e-05</v>
+        <v>-0.000589</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -10008,16 +10008,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.013642</v>
+        <v>0.027248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.015256</v>
+        <v>0.07947799999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.013642</v>
+        <v>0.027248</v>
       </c>
       <c r="F31" t="n">
-        <v>0.015256</v>
+        <v>0.07947799999999999</v>
       </c>
     </row>
     <row r="32">
@@ -10030,16 +10030,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.00024</v>
+        <v>-0.000578</v>
       </c>
       <c r="D32" t="n">
-        <v>2.9e-05</v>
+        <v>0.000305</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.9e-05</v>
+        <v>0.000305</v>
       </c>
     </row>
     <row r="33">
@@ -10052,16 +10052,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.013555</v>
+        <v>0.028154</v>
       </c>
       <c r="D33" t="n">
-        <v>0.015752</v>
+        <v>0.078985</v>
       </c>
       <c r="E33" t="n">
-        <v>0.013555</v>
+        <v>0.028154</v>
       </c>
       <c r="F33" t="n">
-        <v>0.015752</v>
+        <v>0.078985</v>
       </c>
     </row>
     <row r="34">
@@ -10074,16 +10074,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004851</v>
+        <v>0.008233000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.145212</v>
+        <v>0.829864</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004851</v>
+        <v>0.008233000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.145212</v>
+        <v>0.829864</v>
       </c>
     </row>
     <row r="35">
@@ -10096,16 +10096,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.024569</v>
+        <v>0.141802</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242064</v>
+        <v>0.441721</v>
       </c>
       <c r="E35" t="n">
-        <v>0.024569</v>
+        <v>0.141802</v>
       </c>
       <c r="F35" t="n">
-        <v>0.242064</v>
+        <v>0.441721</v>
       </c>
     </row>
     <row r="36">
@@ -10118,16 +10118,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.060339</v>
+        <v>0.205574</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112839</v>
+        <v>0.34581</v>
       </c>
       <c r="E36" t="n">
-        <v>0.060339</v>
+        <v>0.205574</v>
       </c>
       <c r="F36" t="n">
-        <v>0.112839</v>
+        <v>0.34581</v>
       </c>
     </row>
     <row r="37">
@@ -10140,16 +10140,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.005545</v>
+        <v>0.033303</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005545</v>
+        <v>0.033303</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005545</v>
+        <v>0.033303</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005545</v>
+        <v>0.033303</v>
       </c>
     </row>
     <row r="38">
@@ -10162,16 +10162,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-5.8e-05</v>
+        <v>0.001344</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002178</v>
+        <v>0.003349</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.001344</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002178</v>
+        <v>0.003349</v>
       </c>
     </row>
     <row r="39">
@@ -10184,10 +10184,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.000347</v>
+        <v>-0.000767</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.4e-05</v>
+        <v>-0.000301</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -10206,16 +10206,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.000133</v>
+        <v>-0.000874</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.000123</v>
+        <v>0.000973</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.000973</v>
       </c>
     </row>
     <row r="41">
@@ -10228,16 +10228,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.00168</v>
+        <v>0.003345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002176</v>
+        <v>0.011255</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00168</v>
+        <v>0.003345</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002176</v>
+        <v>0.011255</v>
       </c>
     </row>
     <row r="42">
@@ -10250,16 +10250,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.045267</v>
+        <v>0.162887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.089481</v>
+        <v>0.259849</v>
       </c>
       <c r="E42" t="n">
-        <v>0.045267</v>
+        <v>0.162887</v>
       </c>
       <c r="F42" t="n">
-        <v>0.089481</v>
+        <v>0.259849</v>
       </c>
     </row>
     <row r="43">
@@ -10272,10 +10272,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.000415</v>
+        <v>-0.000876</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.000134</v>
+        <v>-0.000694</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -10294,10 +10294,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.000518</v>
+        <v>-0.001278</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.000317</v>
+        <v>-0.00121</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -10316,16 +10316,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05643</v>
+        <v>0.10249</v>
       </c>
       <c r="D45" t="n">
-        <v>0.122306</v>
+        <v>0.699226</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05643</v>
+        <v>0.10249</v>
       </c>
       <c r="F45" t="n">
-        <v>0.122306</v>
+        <v>0.699226</v>
       </c>
     </row>
     <row r="46">
@@ -10338,16 +10338,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.016433</v>
+        <v>0.0954</v>
       </c>
       <c r="D46" t="n">
-        <v>0.122533</v>
+        <v>0.223289</v>
       </c>
       <c r="E46" t="n">
-        <v>0.016433</v>
+        <v>0.0954</v>
       </c>
       <c r="F46" t="n">
-        <v>0.122533</v>
+        <v>0.223289</v>
       </c>
     </row>
     <row r="47">
@@ -10360,10 +10360,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.000343</v>
+        <v>-0.001259</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.000338</v>
+        <v>-0.000251</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -10382,16 +10382,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.4e-05</v>
+        <v>-0.000606</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0012</v>
+        <v>0.008521000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>1.4e-05</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0012</v>
+        <v>0.008521000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -10404,16 +10404,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.022882</v>
+        <v>0.13218</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171745</v>
+        <v>0.313218</v>
       </c>
       <c r="E49" t="n">
-        <v>0.022882</v>
+        <v>0.13218</v>
       </c>
       <c r="F49" t="n">
-        <v>0.171745</v>
+        <v>0.313218</v>
       </c>
     </row>
     <row r="50">
@@ -10426,10 +10426,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.000396</v>
+        <v>-0.001219</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.000322</v>
+        <v>-0.000581</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -10448,16 +10448,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.00608</v>
+        <v>0.019562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01105</v>
+        <v>0.036352</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00608</v>
+        <v>0.019562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01105</v>
+        <v>0.036352</v>
       </c>
     </row>
     <row r="52">
@@ -10470,16 +10470,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.000657</v>
+        <v>0.000569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002031</v>
+        <v>0.013261</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000657</v>
+        <v>0.000569</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002031</v>
+        <v>0.013261</v>
       </c>
     </row>
     <row r="53">
@@ -10492,10 +10492,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.000356</v>
+        <v>-0.000355</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.000356</v>
+        <v>-0.000355</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -10514,16 +10514,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.000188</v>
+        <v>0.000605</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.000188</v>
+        <v>0.000605</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.000605</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.000605</v>
       </c>
     </row>
     <row r="55">
@@ -10536,10 +10536,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.000475</v>
+        <v>-0.001031</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.000475</v>
+        <v>-0.001031</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -10558,16 +10558,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.000256</v>
+        <v>-0.0011</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00051</v>
+        <v>0.004585</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00051</v>
+        <v>0.004585</v>
       </c>
     </row>
     <row r="57">
@@ -10580,13 +10580,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.023446</v>
+        <v>0.135395</v>
       </c>
       <c r="D57" t="n">
-        <v>2.946216</v>
+        <v>5.383343</v>
       </c>
       <c r="E57" t="n">
-        <v>0.023446</v>
+        <v>0.135395</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -10602,16 +10602,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.016286</v>
+        <v>0.094557</v>
       </c>
       <c r="D58" t="n">
-        <v>0.129208</v>
+        <v>0.235486</v>
       </c>
       <c r="E58" t="n">
-        <v>0.016286</v>
+        <v>0.094557</v>
       </c>
       <c r="F58" t="n">
-        <v>0.129208</v>
+        <v>0.235486</v>
       </c>
     </row>
     <row r="59">
@@ -10624,16 +10624,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.000822</v>
+        <v>0.000871</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003399</v>
+        <v>0.021061</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000822</v>
+        <v>0.000871</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003399</v>
+        <v>0.021061</v>
       </c>
     </row>
     <row r="60">
@@ -10646,16 +10646,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.000299</v>
+        <v>-3.3e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.001257</v>
+        <v>0.001666</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.001257</v>
+        <v>0.001666</v>
       </c>
     </row>
     <row r="61">
@@ -10668,10 +10668,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.000429</v>
+        <v>-0.000771</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.000429</v>
+        <v>-0.000771</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -10690,13 +10690,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.547565</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1.553719</v>
+        <v>8.863023999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.547565</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -10712,16 +10712,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.094985</v>
+        <v>0.172945</v>
       </c>
       <c r="D63" t="n">
-        <v>0.175043</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.094985</v>
+        <v>0.172945</v>
       </c>
       <c r="F63" t="n">
-        <v>0.175043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -10734,16 +10734,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.008178</v>
+        <v>0.048317</v>
       </c>
       <c r="D64" t="n">
-        <v>0.037092</v>
+        <v>0.067152</v>
       </c>
       <c r="E64" t="n">
-        <v>0.008178</v>
+        <v>0.048317</v>
       </c>
       <c r="F64" t="n">
-        <v>0.037092</v>
+        <v>0.067152</v>
       </c>
     </row>
     <row r="65">
@@ -10756,16 +10756,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.000291</v>
+        <v>-0.001164</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002061</v>
+        <v>0.01343</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.002061</v>
+        <v>0.01343</v>
       </c>
     </row>
     <row r="66">
@@ -10778,16 +10778,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.002851</v>
+        <v>0.017937</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05602</v>
+        <v>0.101741</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002851</v>
+        <v>0.017937</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05602</v>
+        <v>0.101741</v>
       </c>
     </row>
     <row r="67">
@@ -10800,16 +10800,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.000511</v>
+        <v>-0.001239</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000115</v>
+        <v>-0.000421</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.000115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -10822,16 +10822,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.00017</v>
+        <v>0.000703</v>
       </c>
       <c r="D68" t="n">
-        <v>0.007996</v>
+        <v>0.01398</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.000703</v>
       </c>
       <c r="F68" t="n">
-        <v>0.007996</v>
+        <v>0.01398</v>
       </c>
     </row>
     <row r="69">
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.000232</v>
+        <v>-0.001056</v>
       </c>
       <c r="D69" t="n">
-        <v>0.000135</v>
+        <v>0.002445</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000135</v>
+        <v>0.002445</v>
       </c>
     </row>
     <row r="70">
@@ -10866,16 +10866,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.008063000000000001</v>
+        <v>0.047663</v>
       </c>
       <c r="D70" t="n">
-        <v>0.20343</v>
+        <v>0.371121</v>
       </c>
       <c r="E70" t="n">
-        <v>0.008063000000000001</v>
+        <v>0.047663</v>
       </c>
       <c r="F70" t="n">
-        <v>0.20343</v>
+        <v>0.371121</v>
       </c>
     </row>
     <row r="71">
@@ -10888,16 +10888,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.001871</v>
+        <v>0.012346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001871</v>
+        <v>0.012346</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001871</v>
+        <v>0.012346</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001871</v>
+        <v>0.012346</v>
       </c>
     </row>
     <row r="72">
@@ -10910,16 +10910,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.7e-05</v>
+        <v>-0.00051</v>
       </c>
       <c r="D72" t="n">
-        <v>0.056901</v>
+        <v>0.326201</v>
       </c>
       <c r="E72" t="n">
-        <v>6.7e-05</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.056901</v>
+        <v>0.326201</v>
       </c>
     </row>
     <row r="73">
@@ -10932,10 +10932,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.000452</v>
+        <v>-0.000905</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.7e-05</v>
+        <v>-0.00068</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.000315</v>
+        <v>-0.000122</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001842</v>
+        <v>0.002735</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001842</v>
+        <v>0.002735</v>
       </c>
     </row>
     <row r="75">
@@ -10976,16 +10976,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.028335</v>
+        <v>0.09515899999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.052418</v>
+        <v>0.163277</v>
       </c>
       <c r="E75" t="n">
-        <v>0.028335</v>
+        <v>0.09515899999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.052418</v>
+        <v>0.163277</v>
       </c>
     </row>
     <row r="76">
@@ -10998,16 +10998,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.000432</v>
+        <v>0.000157</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005154</v>
+        <v>0.031071</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000432</v>
+        <v>0.000157</v>
       </c>
       <c r="F76" t="n">
-        <v>0.005154</v>
+        <v>0.031071</v>
       </c>
     </row>
     <row r="77">
@@ -11020,10 +11020,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.000574</v>
+        <v>-0.001601</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.000297</v>
+        <v>-0.001174</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -11042,16 +11042,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.000289</v>
+        <v>2.4e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.000289</v>
+        <v>2.4e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>2.4e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2.4e-05</v>
       </c>
     </row>
     <row r="79">
@@ -11064,16 +11064,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.015275</v>
+        <v>0.088793</v>
       </c>
       <c r="D79" t="n">
-        <v>0.061784</v>
+        <v>0.112274</v>
       </c>
       <c r="E79" t="n">
-        <v>0.015275</v>
+        <v>0.088793</v>
       </c>
       <c r="F79" t="n">
-        <v>0.061784</v>
+        <v>0.112274</v>
       </c>
     </row>
     <row r="80">
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.000337</v>
+        <v>-0.001247</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.000312</v>
+        <v>-0.000104</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -11108,10 +11108,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.000456</v>
+        <v>-0.001229</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.000327</v>
+        <v>-0.000924</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -11130,16 +11130,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.004746</v>
+        <v>0.028744</v>
       </c>
       <c r="D82" t="n">
-        <v>0.181642</v>
+        <v>0.331306</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004746</v>
+        <v>0.028744</v>
       </c>
       <c r="F82" t="n">
-        <v>0.181642</v>
+        <v>0.331306</v>
       </c>
     </row>
     <row r="83">
@@ -11152,16 +11152,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.000306</v>
+        <v>-0.001191</v>
       </c>
       <c r="D83" t="n">
-        <v>4e-05</v>
+        <v>0.001904</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>4e-05</v>
+        <v>0.001904</v>
       </c>
     </row>
     <row r="84">
@@ -11174,10 +11174,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.000419</v>
+        <v>-0.001259</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.000343</v>
+        <v>-0.000715</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -11196,16 +11196,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.000976</v>
+        <v>0.001151</v>
       </c>
       <c r="D85" t="n">
-        <v>0.005859</v>
+        <v>0.035089</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000976</v>
+        <v>0.001151</v>
       </c>
       <c r="F85" t="n">
-        <v>0.005859</v>
+        <v>0.035089</v>
       </c>
     </row>
     <row r="86">
@@ -11218,16 +11218,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-0.000552</v>
+        <v>-0.001472</v>
       </c>
       <c r="D86" t="n">
-        <v>0.040936</v>
+        <v>0.07417700000000001</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.040936</v>
+        <v>0.07417700000000001</v>
       </c>
     </row>
     <row r="87">
@@ -11240,16 +11240,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0003</v>
+        <v>-8.3e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005065</v>
+        <v>0.030561</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.005065</v>
+        <v>0.030561</v>
       </c>
     </row>
     <row r="88">
@@ -11262,16 +11262,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.000319</v>
+        <v>0.000279</v>
       </c>
       <c r="D88" t="n">
-        <v>0.000498</v>
+        <v>0.003493</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000319</v>
+        <v>0.000279</v>
       </c>
       <c r="F88" t="n">
-        <v>0.000498</v>
+        <v>0.003493</v>
       </c>
     </row>
     <row r="89">
@@ -11284,16 +11284,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.001583</v>
+        <v>0.002261</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001966</v>
+        <v>0.012885</v>
       </c>
       <c r="E89" t="n">
-        <v>0.001583</v>
+        <v>0.002261</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001966</v>
+        <v>0.012885</v>
       </c>
     </row>
     <row r="90">
@@ -11306,10 +11306,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.000541</v>
+        <v>-0.001408</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.000333</v>
+        <v>-0.001241</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -11328,10 +11328,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.000421</v>
+        <v>-0.000758</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.9e-05</v>
+        <v>-0.000724</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -11350,16 +11350,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.000273</v>
+        <v>-0.00113</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.000242</v>
+        <v>0.000293</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>0.000293</v>
       </c>
     </row>
     <row r="93">
@@ -11372,16 +11372,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.000331</v>
+        <v>-0.001236</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.00021</v>
+        <v>0.000475</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>0.000475</v>
       </c>
     </row>
     <row r="94">
@@ -11394,16 +11394,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.062357</v>
+        <v>0.357319</v>
       </c>
       <c r="D94" t="n">
-        <v>0.344161</v>
+        <v>0.628295</v>
       </c>
       <c r="E94" t="n">
-        <v>0.062357</v>
+        <v>0.357319</v>
       </c>
       <c r="F94" t="n">
-        <v>0.344161</v>
+        <v>0.628295</v>
       </c>
     </row>
     <row r="95">
@@ -11416,16 +11416,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.007559</v>
+        <v>0.013182</v>
       </c>
       <c r="D95" t="n">
-        <v>0.010159</v>
+        <v>0.059618</v>
       </c>
       <c r="E95" t="n">
-        <v>0.007559</v>
+        <v>0.013182</v>
       </c>
       <c r="F95" t="n">
-        <v>0.010159</v>
+        <v>0.059618</v>
       </c>
     </row>
     <row r="96">
@@ -11438,16 +11438,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-9.500000000000001e-05</v>
+        <v>-0.000804</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001132</v>
+        <v>0.008129000000000001</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.001132</v>
+        <v>0.008129000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -11460,10 +11460,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.000365</v>
+        <v>-0.001249</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.000338</v>
+        <v>-0.000407</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -11482,10 +11482,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.000525</v>
+        <v>-0.001317</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.000314</v>
+        <v>-0.001206</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -11504,16 +11504,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.006272</v>
+        <v>0.014021</v>
       </c>
       <c r="D99" t="n">
-        <v>0.008018000000000001</v>
+        <v>0.037446</v>
       </c>
       <c r="E99" t="n">
-        <v>0.006272</v>
+        <v>0.014021</v>
       </c>
       <c r="F99" t="n">
-        <v>0.008018000000000001</v>
+        <v>0.037446</v>
       </c>
     </row>
     <row r="100">
@@ -11526,16 +11526,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.029122</v>
+        <v>0.106972</v>
       </c>
       <c r="D100" t="n">
-        <v>0.058883</v>
+        <v>0.167765</v>
       </c>
       <c r="E100" t="n">
-        <v>0.029122</v>
+        <v>0.106972</v>
       </c>
       <c r="F100" t="n">
-        <v>0.058883</v>
+        <v>0.167765</v>
       </c>
     </row>
     <row r="101">
@@ -11548,16 +11548,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.000809</v>
+        <v>0.000846</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002215</v>
+        <v>0.014309</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000809</v>
+        <v>0.000846</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002215</v>
+        <v>0.014309</v>
       </c>
     </row>
     <row r="102">
@@ -11570,16 +11570,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.000248</v>
+        <v>-0.001036</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.000221</v>
+        <v>0.000263</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.000263</v>
       </c>
     </row>
     <row r="103">
@@ -11592,16 +11592,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.000339</v>
+        <v>-0.001251</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003596</v>
+        <v>0.022187</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.003596</v>
+        <v>0.022187</v>
       </c>
     </row>
     <row r="104">
@@ -11614,16 +11614,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.000448</v>
+        <v>-0.000879</v>
       </c>
       <c r="D104" t="n">
-        <v>0.000458</v>
+        <v>0.000206</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.000458</v>
+        <v>0.000206</v>
       </c>
     </row>
     <row r="105">
@@ -11636,16 +11636,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.000385</v>
+        <v>-0.000574</v>
       </c>
       <c r="D105" t="n">
-        <v>3.2e-05</v>
+        <v>-0.000522</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>3.2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -11658,16 +11658,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.00264</v>
+        <v>0.01673</v>
       </c>
       <c r="D106" t="n">
-        <v>0.021954</v>
+        <v>0.039487</v>
       </c>
       <c r="E106" t="n">
-        <v>0.00264</v>
+        <v>0.01673</v>
       </c>
       <c r="F106" t="n">
-        <v>0.021954</v>
+        <v>0.039487</v>
       </c>
     </row>
     <row r="107">
@@ -11680,16 +11680,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.012647</v>
+        <v>0.06431000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.035537</v>
+        <v>0.073807</v>
       </c>
       <c r="E107" t="n">
-        <v>0.012647</v>
+        <v>0.06431000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>0.035537</v>
+        <v>0.073807</v>
       </c>
     </row>
     <row r="108">
@@ -11702,16 +11702,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.012867</v>
+        <v>0.042613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.023664</v>
+        <v>0.07506</v>
       </c>
       <c r="E108" t="n">
-        <v>0.012867</v>
+        <v>0.042613</v>
       </c>
       <c r="F108" t="n">
-        <v>0.023664</v>
+        <v>0.07506</v>
       </c>
     </row>
     <row r="109">
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.00034</v>
+        <v>-0.001253</v>
       </c>
       <c r="D109" t="n">
-        <v>0.017816</v>
+        <v>0.103285</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.017816</v>
+        <v>0.103285</v>
       </c>
     </row>
     <row r="110">
@@ -11746,16 +11746,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.01827</v>
+        <v>0.044069</v>
       </c>
       <c r="D110" t="n">
-        <v>0.024461</v>
+        <v>0.105872</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01827</v>
+        <v>0.044069</v>
       </c>
       <c r="F110" t="n">
-        <v>0.024461</v>
+        <v>0.105872</v>
       </c>
     </row>
     <row r="111">
@@ -11768,16 +11768,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.001634</v>
+        <v>0.008092</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004774</v>
+        <v>0.010992</v>
       </c>
       <c r="E111" t="n">
-        <v>0.001634</v>
+        <v>0.008092</v>
       </c>
       <c r="F111" t="n">
-        <v>0.004774</v>
+        <v>0.010992</v>
       </c>
     </row>
     <row r="112">
@@ -11790,10 +11790,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.000496</v>
+        <v>-0.001191</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.000306</v>
+        <v>-0.001152</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -11812,16 +11812,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.000176</v>
+        <v>-0.000311</v>
       </c>
       <c r="D113" t="n">
-        <v>0.001985</v>
+        <v>0.012993</v>
       </c>
       <c r="E113" t="n">
-        <v>0.000176</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.001985</v>
+        <v>0.012993</v>
       </c>
     </row>
     <row r="114">
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-0.000303</v>
+        <v>-0.001185</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.000303</v>
+        <v>-0.001185</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -11856,16 +11856,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.004658</v>
+        <v>0.00788</v>
       </c>
       <c r="D115" t="n">
-        <v>0.012792</v>
+        <v>0.074632</v>
       </c>
       <c r="E115" t="n">
-        <v>0.004658</v>
+        <v>0.00788</v>
       </c>
       <c r="F115" t="n">
-        <v>0.012792</v>
+        <v>0.074632</v>
       </c>
     </row>
     <row r="116">
@@ -11878,10 +11878,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-0.000578</v>
+        <v>-0.001623</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.000578</v>
+        <v>-0.001623</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -11900,13 +11900,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.137114</v>
+        <v>0.783677</v>
       </c>
       <c r="D117" t="n">
-        <v>1.806734</v>
+        <v>3.30103</v>
       </c>
       <c r="E117" t="n">
-        <v>0.137114</v>
+        <v>0.783677</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -11922,16 +11922,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.017984</v>
+        <v>0.104246</v>
       </c>
       <c r="D118" t="n">
-        <v>0.101025</v>
+        <v>0.183984</v>
       </c>
       <c r="E118" t="n">
-        <v>0.017984</v>
+        <v>0.104246</v>
       </c>
       <c r="F118" t="n">
-        <v>0.101025</v>
+        <v>0.183984</v>
       </c>
     </row>
     <row r="119">
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.019125</v>
+        <v>0.110752</v>
       </c>
       <c r="D119" t="n">
-        <v>0.076405</v>
+        <v>0.138993</v>
       </c>
       <c r="E119" t="n">
-        <v>0.019125</v>
+        <v>0.110752</v>
       </c>
       <c r="F119" t="n">
-        <v>0.076405</v>
+        <v>0.138993</v>
       </c>
     </row>
     <row r="120">
@@ -11966,16 +11966,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.000109</v>
+        <v>0.002298</v>
       </c>
       <c r="D120" t="n">
-        <v>0.001824</v>
+        <v>0.002702</v>
       </c>
       <c r="E120" t="n">
-        <v>0.000109</v>
+        <v>0.002298</v>
       </c>
       <c r="F120" t="n">
-        <v>0.001824</v>
+        <v>0.002702</v>
       </c>
     </row>
     <row r="121">
@@ -11988,10 +11988,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.000583</v>
+        <v>-0.001653</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.000583</v>
+        <v>-0.001653</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -12010,16 +12010,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.017998</v>
+        <v>0.038789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.021572</v>
+        <v>0.104326</v>
       </c>
       <c r="E122" t="n">
-        <v>0.017998</v>
+        <v>0.038789</v>
       </c>
       <c r="F122" t="n">
-        <v>0.021572</v>
+        <v>0.104326</v>
       </c>
     </row>
     <row r="123">
@@ -12032,16 +12032,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-5.7e-05</v>
+        <v>-0.000735</v>
       </c>
       <c r="D123" t="n">
-        <v>0.002237</v>
+        <v>0.014432</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.002237</v>
+        <v>0.014432</v>
       </c>
     </row>
     <row r="124">
@@ -12054,10 +12054,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.000585</v>
+        <v>-0.001663</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.000585</v>
+        <v>-0.001663</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -12076,16 +12076,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.090254</v>
+        <v>0.211455</v>
       </c>
       <c r="D125" t="n">
-        <v>0.116058</v>
+        <v>0.516421</v>
       </c>
       <c r="E125" t="n">
-        <v>0.090254</v>
+        <v>0.211455</v>
       </c>
       <c r="F125" t="n">
-        <v>0.116058</v>
+        <v>0.516421</v>
       </c>
     </row>
     <row r="126">
@@ -12098,16 +12098,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.087282</v>
+        <v>0.43606</v>
       </c>
       <c r="D126" t="n">
-        <v>0.238966</v>
+        <v>0.499471</v>
       </c>
       <c r="E126" t="n">
-        <v>0.087282</v>
+        <v>0.43606</v>
       </c>
       <c r="F126" t="n">
-        <v>0.238966</v>
+        <v>0.499471</v>
       </c>
     </row>
     <row r="127">
@@ -12120,10 +12120,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-0.000543</v>
+        <v>-0.00142</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.000285</v>
+        <v>-0.001153</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-0.000557</v>
+        <v>-0.001504</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.000333</v>
+        <v>-0.00124</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -12164,16 +12164,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.000106</v>
+        <v>0.001072</v>
       </c>
       <c r="D129" t="n">
-        <v>0.038329</v>
+        <v>0.069411</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>0.001072</v>
       </c>
       <c r="F129" t="n">
-        <v>0.038329</v>
+        <v>0.069411</v>
       </c>
     </row>
     <row r="130">
@@ -12186,10 +12186,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.000526</v>
+        <v>-0.001323</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.000526</v>
+        <v>-0.001323</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -12208,10 +12208,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.000366</v>
+        <v>-0.001256</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.000342</v>
+        <v>-0.000413</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -12230,16 +12230,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.6e-05</v>
+        <v>-0.000377</v>
       </c>
       <c r="D132" t="n">
-        <v>0.000139</v>
+        <v>0.001826</v>
       </c>
       <c r="E132" t="n">
-        <v>2.6e-05</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.000139</v>
+        <v>0.001826</v>
       </c>
     </row>
     <row r="133">
@@ -12252,16 +12252,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.000714</v>
+        <v>0.005745</v>
       </c>
       <c r="D133" t="n">
-        <v>0.004449</v>
+        <v>0.007498</v>
       </c>
       <c r="E133" t="n">
-        <v>0.000714</v>
+        <v>0.005745</v>
       </c>
       <c r="F133" t="n">
-        <v>0.004449</v>
+        <v>0.007498</v>
       </c>
     </row>
     <row r="134">
@@ -12274,16 +12274,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.000437</v>
+        <v>0.004167</v>
       </c>
       <c r="D134" t="n">
-        <v>0.003179</v>
+        <v>0.005178</v>
       </c>
       <c r="E134" t="n">
-        <v>0.000437</v>
+        <v>0.004167</v>
       </c>
       <c r="F134" t="n">
-        <v>0.003179</v>
+        <v>0.005178</v>
       </c>
     </row>
     <row r="135">
@@ -12296,10 +12296,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.000548</v>
+        <v>-0.001448</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.000318</v>
+        <v>-0.001213</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -12318,16 +12318,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.001461</v>
+        <v>0.002038</v>
       </c>
       <c r="D136" t="n">
-        <v>0.005111</v>
+        <v>0.030823</v>
       </c>
       <c r="E136" t="n">
-        <v>0.001461</v>
+        <v>0.002038</v>
       </c>
       <c r="F136" t="n">
-        <v>0.005111</v>
+        <v>0.030823</v>
       </c>
     </row>
     <row r="137">
@@ -12340,16 +12340,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.004723</v>
+        <v>0.008</v>
       </c>
       <c r="D137" t="n">
-        <v>0.004723</v>
+        <v>0.008</v>
       </c>
       <c r="E137" t="n">
-        <v>0.004723</v>
+        <v>0.008</v>
       </c>
       <c r="F137" t="n">
-        <v>0.004723</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="138">
@@ -12362,16 +12362,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.028154</v>
+        <v>0.143172</v>
       </c>
       <c r="D138" t="n">
-        <v>0.078692</v>
+        <v>0.162246</v>
       </c>
       <c r="E138" t="n">
-        <v>0.028154</v>
+        <v>0.143172</v>
       </c>
       <c r="F138" t="n">
-        <v>0.078692</v>
+        <v>0.162246</v>
       </c>
     </row>
     <row r="139">
@@ -12384,16 +12384,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.009325999999999999</v>
+        <v>0.054862</v>
       </c>
       <c r="D139" t="n">
-        <v>0.031863</v>
+        <v>0.057595</v>
       </c>
       <c r="E139" t="n">
-        <v>0.009325999999999999</v>
+        <v>0.054862</v>
       </c>
       <c r="F139" t="n">
-        <v>0.031863</v>
+        <v>0.057595</v>
       </c>
     </row>
     <row r="140">
@@ -12406,16 +12406,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.001976</v>
+        <v>0.00298</v>
       </c>
       <c r="D140" t="n">
-        <v>0.016149</v>
+        <v>0.093778</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001976</v>
+        <v>0.00298</v>
       </c>
       <c r="F140" t="n">
-        <v>0.016149</v>
+        <v>0.093778</v>
       </c>
     </row>
     <row r="141">
@@ -12428,10 +12428,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.000301</v>
+        <v>-0.001182</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.000298</v>
+        <v>-2.4e-05</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -12450,16 +12450,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.06451900000000001</v>
+        <v>0.117272</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06451900000000001</v>
+        <v>0.117272</v>
       </c>
       <c r="E142" t="n">
-        <v>0.06451900000000001</v>
+        <v>0.117272</v>
       </c>
       <c r="F142" t="n">
-        <v>0.06451900000000001</v>
+        <v>0.117272</v>
       </c>
     </row>
     <row r="143">
@@ -12472,16 +12472,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-0.000246</v>
+        <v>-0.001081</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.000191</v>
+        <v>0.000584</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>0.000584</v>
       </c>
     </row>
     <row r="144">
@@ -12494,10 +12494,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-0.000527</v>
+        <v>-0.001328</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.000259</v>
+        <v>-0.001105</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -12516,10 +12516,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-0.000473</v>
+        <v>-0.001032</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.000219</v>
+        <v>-0.001025</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -12538,10 +12538,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.00041</v>
+        <v>-0.000842</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.000115</v>
+        <v>-0.000665</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -12560,10 +12560,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-0.000441</v>
+        <v>-0.000838</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.000441</v>
+        <v>-0.000838</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -12582,16 +12582,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.000835</v>
+        <v>0.006435</v>
       </c>
       <c r="D148" t="n">
-        <v>0.000835</v>
+        <v>0.006435</v>
       </c>
       <c r="E148" t="n">
-        <v>0.000835</v>
+        <v>0.006435</v>
       </c>
       <c r="F148" t="n">
-        <v>0.000835</v>
+        <v>0.006435</v>
       </c>
     </row>
     <row r="149">
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.001204</v>
+        <v>0.008541</v>
       </c>
       <c r="D149" t="n">
-        <v>0.001204</v>
+        <v>0.008541</v>
       </c>
       <c r="E149" t="n">
-        <v>0.001204</v>
+        <v>0.008541</v>
       </c>
       <c r="F149" t="n">
-        <v>0.001204</v>
+        <v>0.008541</v>
       </c>
     </row>
     <row r="150">
@@ -12626,16 +12626,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.016693</v>
+        <v>0.096883</v>
       </c>
       <c r="D150" t="n">
-        <v>0.068135</v>
+        <v>0.123879</v>
       </c>
       <c r="E150" t="n">
-        <v>0.016693</v>
+        <v>0.096883</v>
       </c>
       <c r="F150" t="n">
-        <v>0.068135</v>
+        <v>0.123879</v>
       </c>
     </row>
     <row r="151">
@@ -12648,16 +12648,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.001882</v>
+        <v>0.004884</v>
       </c>
       <c r="D151" t="n">
-        <v>0.003018</v>
+        <v>0.012411</v>
       </c>
       <c r="E151" t="n">
-        <v>0.001882</v>
+        <v>0.004884</v>
       </c>
       <c r="F151" t="n">
-        <v>0.003018</v>
+        <v>0.012411</v>
       </c>
     </row>
     <row r="152">
@@ -12670,16 +12670,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.001461</v>
+        <v>0.010009</v>
       </c>
       <c r="D152" t="n">
-        <v>0.001461</v>
+        <v>0.010009</v>
       </c>
       <c r="E152" t="n">
-        <v>0.001461</v>
+        <v>0.010009</v>
       </c>
       <c r="F152" t="n">
-        <v>0.001461</v>
+        <v>0.010009</v>
       </c>
     </row>
     <row r="153">
@@ -12692,16 +12692,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.0006980000000000001</v>
+        <v>0.005657</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0006980000000000001</v>
+        <v>0.005657</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0006980000000000001</v>
+        <v>0.005657</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0006980000000000001</v>
+        <v>0.005657</v>
       </c>
     </row>
     <row r="154">
@@ -12714,16 +12714,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.000714</v>
+        <v>0.005748</v>
       </c>
       <c r="D154" t="n">
-        <v>0.000714</v>
+        <v>0.005748</v>
       </c>
       <c r="E154" t="n">
-        <v>0.000714</v>
+        <v>0.005748</v>
       </c>
       <c r="F154" t="n">
-        <v>0.000714</v>
+        <v>0.005748</v>
       </c>
     </row>
     <row r="155">
@@ -12736,16 +12736,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.046744</v>
+        <v>0.211117</v>
       </c>
       <c r="D155" t="n">
-        <v>0.115873</v>
+        <v>0.268272</v>
       </c>
       <c r="E155" t="n">
-        <v>0.046744</v>
+        <v>0.211117</v>
       </c>
       <c r="F155" t="n">
-        <v>0.115873</v>
+        <v>0.268272</v>
       </c>
     </row>
     <row r="156">
@@ -12758,16 +12758,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.024177</v>
+        <v>0.110984</v>
       </c>
       <c r="D156" t="n">
-        <v>0.061078</v>
+        <v>0.139566</v>
       </c>
       <c r="E156" t="n">
-        <v>0.024177</v>
+        <v>0.110984</v>
       </c>
       <c r="F156" t="n">
-        <v>0.061078</v>
+        <v>0.139566</v>
       </c>
     </row>
     <row r="157">
@@ -12780,16 +12780,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.002171</v>
+        <v>0.005811</v>
       </c>
       <c r="D157" t="n">
-        <v>0.003526</v>
+        <v>0.014055</v>
       </c>
       <c r="E157" t="n">
-        <v>0.002171</v>
+        <v>0.005811</v>
       </c>
       <c r="F157" t="n">
-        <v>0.003526</v>
+        <v>0.014055</v>
       </c>
     </row>
     <row r="158">
@@ -12802,16 +12802,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.00381</v>
+        <v>0.012434</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00715</v>
+        <v>0.023407</v>
       </c>
       <c r="E158" t="n">
-        <v>0.00381</v>
+        <v>0.012434</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00715</v>
+        <v>0.023407</v>
       </c>
     </row>
     <row r="159">
@@ -12824,16 +12824,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.041801</v>
+        <v>0.193008</v>
       </c>
       <c r="D159" t="n">
-        <v>0.105964</v>
+        <v>0.240082</v>
       </c>
       <c r="E159" t="n">
-        <v>0.041801</v>
+        <v>0.193008</v>
       </c>
       <c r="F159" t="n">
-        <v>0.105964</v>
+        <v>0.240082</v>
       </c>
     </row>
     <row r="160">
@@ -12846,16 +12846,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-0.0002</v>
+        <v>0.000535</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.0002</v>
+        <v>0.000535</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>0.000535</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>0.000535</v>
       </c>
     </row>
     <row r="161">
@@ -12868,10 +12868,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-0.000453</v>
+        <v>-0.001192</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.000307</v>
+        <v>-0.000908</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -12890,16 +12890,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.023601</v>
+        <v>0.136278</v>
       </c>
       <c r="D162" t="n">
-        <v>0.096291</v>
+        <v>0.175332</v>
       </c>
       <c r="E162" t="n">
-        <v>0.023601</v>
+        <v>0.136278</v>
       </c>
       <c r="F162" t="n">
-        <v>0.096291</v>
+        <v>0.175332</v>
       </c>
     </row>
     <row r="163">
@@ -12912,16 +12912,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.001699</v>
+        <v>0.011365</v>
       </c>
       <c r="D163" t="n">
-        <v>0.015814</v>
+        <v>0.028267</v>
       </c>
       <c r="E163" t="n">
-        <v>0.001699</v>
+        <v>0.011365</v>
       </c>
       <c r="F163" t="n">
-        <v>0.015814</v>
+        <v>0.028267</v>
       </c>
     </row>
     <row r="164">
@@ -12934,16 +12934,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.001155</v>
+        <v>0.008265</v>
       </c>
       <c r="D164" t="n">
-        <v>0.011643</v>
+        <v>0.020646</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001155</v>
+        <v>0.008265</v>
       </c>
       <c r="F164" t="n">
-        <v>0.011643</v>
+        <v>0.020646</v>
       </c>
     </row>
     <row r="165">
@@ -12956,10 +12956,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-0.000325</v>
+        <v>-0.001115</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.000264</v>
+        <v>-0.00018</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -12978,10 +12978,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-0.000434</v>
+        <v>-0.000801</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.000434</v>
+        <v>-0.000801</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -13000,10 +13000,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-0.000398</v>
+        <v>-0.000593</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.000398</v>
+        <v>-0.000593</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -13022,16 +13022,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.004858</v>
+        <v>0.029384</v>
       </c>
       <c r="D168" t="n">
-        <v>0.03058</v>
+        <v>0.055251</v>
       </c>
       <c r="E168" t="n">
-        <v>0.004858</v>
+        <v>0.029384</v>
       </c>
       <c r="F168" t="n">
-        <v>0.03058</v>
+        <v>0.055251</v>
       </c>
     </row>
     <row r="169">
@@ -13044,16 +13044,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.000337</v>
+        <v>0.003599</v>
       </c>
       <c r="D169" t="n">
-        <v>0.000337</v>
+        <v>0.003599</v>
       </c>
       <c r="E169" t="n">
-        <v>0.000337</v>
+        <v>0.003599</v>
       </c>
       <c r="F169" t="n">
-        <v>0.000337</v>
+        <v>0.003599</v>
       </c>
     </row>
     <row r="170">
@@ -13066,16 +13066,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.000259</v>
+        <v>0.00315</v>
       </c>
       <c r="D170" t="n">
-        <v>0.010051</v>
+        <v>0.017735</v>
       </c>
       <c r="E170" t="n">
-        <v>0.000259</v>
+        <v>0.00315</v>
       </c>
       <c r="F170" t="n">
-        <v>0.010051</v>
+        <v>0.017735</v>
       </c>
     </row>
     <row r="171">
@@ -13088,16 +13088,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.000354</v>
+        <v>0.003695</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009377999999999999</v>
+        <v>0.016506</v>
       </c>
       <c r="E171" t="n">
-        <v>0.000354</v>
+        <v>0.003695</v>
       </c>
       <c r="F171" t="n">
-        <v>0.009377999999999999</v>
+        <v>0.016506</v>
       </c>
     </row>
     <row r="172">
@@ -13110,10 +13110,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-0.000467</v>
+        <v>-0.0009879999999999999</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.000467</v>
+        <v>-0.0009879999999999999</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -13132,16 +13132,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.001018</v>
+        <v>0.007482</v>
       </c>
       <c r="D173" t="n">
-        <v>0.011483</v>
+        <v>0.020352</v>
       </c>
       <c r="E173" t="n">
-        <v>0.001018</v>
+        <v>0.007482</v>
       </c>
       <c r="F173" t="n">
-        <v>0.011483</v>
+        <v>0.020352</v>
       </c>
     </row>
     <row r="174">
@@ -13154,10 +13154,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-0.000506</v>
+        <v>-0.001213</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.000506</v>
+        <v>-0.001213</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -13176,16 +13176,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.001446</v>
+        <v>0.004855</v>
       </c>
       <c r="D175" t="n">
-        <v>0.003002</v>
+        <v>0.00992</v>
       </c>
       <c r="E175" t="n">
-        <v>0.001446</v>
+        <v>0.004855</v>
       </c>
       <c r="F175" t="n">
-        <v>0.003002</v>
+        <v>0.00992</v>
       </c>
     </row>
     <row r="176">
@@ -13198,16 +13198,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.002106</v>
+        <v>0.003216</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00411</v>
+        <v>0.025116</v>
       </c>
       <c r="E176" t="n">
-        <v>0.002106</v>
+        <v>0.003216</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00411</v>
+        <v>0.025116</v>
       </c>
     </row>
     <row r="177">
@@ -13220,16 +13220,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-5.9e-05</v>
+        <v>0.001337</v>
       </c>
       <c r="D177" t="n">
-        <v>-5.9e-05</v>
+        <v>0.001337</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>0.001337</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>0.001337</v>
       </c>
     </row>
     <row r="178">
@@ -13242,16 +13242,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-5.8e-05</v>
+        <v>0.001346</v>
       </c>
       <c r="D178" t="n">
-        <v>-5.8e-05</v>
+        <v>0.001346</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>0.001346</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>0.001346</v>
       </c>
     </row>
     <row r="179">
@@ -13264,16 +13264,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.001197</v>
+        <v>0.008501999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>0.012868</v>
+        <v>0.022883</v>
       </c>
       <c r="E179" t="n">
-        <v>0.001197</v>
+        <v>0.008501999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>0.012868</v>
+        <v>0.022883</v>
       </c>
     </row>
     <row r="180">
@@ -13286,16 +13286,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.010222</v>
+        <v>0.059976</v>
       </c>
       <c r="D180" t="n">
-        <v>0.034468</v>
+        <v>0.062356</v>
       </c>
       <c r="E180" t="n">
-        <v>0.010222</v>
+        <v>0.059976</v>
       </c>
       <c r="F180" t="n">
-        <v>0.034468</v>
+        <v>0.062356</v>
       </c>
     </row>
     <row r="181">
@@ -13308,16 +13308,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.019963</v>
+        <v>0.115528</v>
       </c>
       <c r="D181" t="n">
-        <v>0.06707200000000001</v>
+        <v>0.121937</v>
       </c>
       <c r="E181" t="n">
-        <v>0.019963</v>
+        <v>0.115528</v>
       </c>
       <c r="F181" t="n">
-        <v>0.06707200000000001</v>
+        <v>0.121937</v>
       </c>
     </row>
     <row r="182">
@@ -13330,16 +13330,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.010352</v>
+        <v>0.060717</v>
       </c>
       <c r="D182" t="n">
-        <v>0.010352</v>
+        <v>0.060717</v>
       </c>
       <c r="E182" t="n">
-        <v>0.010352</v>
+        <v>0.060717</v>
       </c>
       <c r="F182" t="n">
-        <v>0.010352</v>
+        <v>0.060717</v>
       </c>
     </row>
     <row r="183">
@@ -13352,16 +13352,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.000565</v>
+        <v>0.0049</v>
       </c>
       <c r="D183" t="n">
-        <v>0.000565</v>
+        <v>0.0049</v>
       </c>
       <c r="E183" t="n">
-        <v>0.000565</v>
+        <v>0.0049</v>
       </c>
       <c r="F183" t="n">
-        <v>0.000565</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="184">
@@ -13374,16 +13374,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.016781</v>
+        <v>0.09737999999999999</v>
       </c>
       <c r="D184" t="n">
-        <v>0.101485</v>
+        <v>0.184824</v>
       </c>
       <c r="E184" t="n">
-        <v>0.016781</v>
+        <v>0.09737999999999999</v>
       </c>
       <c r="F184" t="n">
-        <v>0.101485</v>
+        <v>0.184824</v>
       </c>
     </row>
     <row r="185">
@@ -13396,10 +13396,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-0.000456</v>
+        <v>-0.000927</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.000456</v>
+        <v>-0.000927</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -13418,16 +13418,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.008142</v>
+        <v>0.048113</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008142</v>
+        <v>0.048113</v>
       </c>
       <c r="E186" t="n">
-        <v>0.008142</v>
+        <v>0.048113</v>
       </c>
       <c r="F186" t="n">
-        <v>0.008142</v>
+        <v>0.048113</v>
       </c>
     </row>
     <row r="187">
@@ -13440,16 +13440,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
       <c r="D187" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
       <c r="E187" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
       <c r="F187" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
     </row>
     <row r="188">
@@ -13462,16 +13462,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
       <c r="D188" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
       <c r="E188" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
       <c r="F188" t="n">
-        <v>0.002474</v>
+        <v>0.015785</v>
       </c>
     </row>
     <row r="189">
@@ -13484,10 +13484,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-0.000423</v>
+        <v>-0.000974</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.000188</v>
+        <v>-0.000735</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-0.000423</v>
+        <v>-0.000975</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.000188</v>
+        <v>-0.000739</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -13528,10 +13528,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-0.000423</v>
+        <v>-0.000974</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.000188</v>
+        <v>-0.000735</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -13550,16 +13550,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.000865</v>
+        <v>0.006611</v>
       </c>
       <c r="D192" t="n">
-        <v>0.02603</v>
+        <v>0.046936</v>
       </c>
       <c r="E192" t="n">
-        <v>0.000865</v>
+        <v>0.006611</v>
       </c>
       <c r="F192" t="n">
-        <v>0.02603</v>
+        <v>0.046936</v>
       </c>
     </row>
     <row r="193">
@@ -13572,16 +13572,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.004617</v>
+        <v>0.028006</v>
       </c>
       <c r="D193" t="n">
-        <v>0.024975</v>
+        <v>0.045009</v>
       </c>
       <c r="E193" t="n">
-        <v>0.004617</v>
+        <v>0.028006</v>
       </c>
       <c r="F193" t="n">
-        <v>0.024975</v>
+        <v>0.045009</v>
       </c>
     </row>
   </sheetData>
